--- a/open_phil_data_modified.xlsx
+++ b/open_phil_data_modified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmaul\Documents\EA Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD42B8C9-DFB8-4B8A-A37A-462B581F1888}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB76D1DA-E13C-475E-BDFF-DD46D1FA3830}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3240" uniqueCount="1640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3242" uniqueCount="1642">
   <si>
     <t>Grant</t>
   </si>
@@ -4951,16 +4951,23 @@
   </si>
   <si>
     <t>Meta</t>
+  </si>
+  <si>
+    <t>$TOT</t>
+  </si>
+  <si>
+    <t>Eafunds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,,&quot;M&quot;"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -5447,7 +5454,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5457,6 +5464,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -7012,10 +7020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S1076"/>
+  <dimension ref="A1:U1076"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7028,7 +7036,7 @@
     <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7066,7 +7074,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -7119,7 +7127,7 @@
         <v>0.38576941545533033</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -7172,7 +7180,7 @@
         <v>0.16177088853045135</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -7225,7 +7233,7 @@
         <v>0.32597172610403585</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -7278,7 +7286,7 @@
         <v>0.12648796991018246</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -7299,7 +7307,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -7320,7 +7328,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -7347,8 +7355,31 @@
         <f>SUMIFS(D:D,C:C,"="&amp;H8,F:F,"="&amp;$H$1)</f>
         <v>26167830</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>1640</v>
+      </c>
+      <c r="O8" s="7">
+        <f>SUMIF($F:$F,"="&amp;O$1,$D:$D)</f>
+        <v>135666297</v>
+      </c>
+      <c r="P8" s="7">
+        <f t="shared" ref="P8:S8" si="3">SUMIF($F:$F,"="&amp;P$1,$D:$D)</f>
+        <v>312480277</v>
+      </c>
+      <c r="Q8" s="7">
+        <f t="shared" si="3"/>
+        <v>197047477</v>
+      </c>
+      <c r="R8" s="7">
+        <f t="shared" si="3"/>
+        <v>297126397</v>
+      </c>
+      <c r="S8" s="7">
+        <f t="shared" si="3"/>
+        <v>221340856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -7376,7 +7407,7 @@
         <v>14210367</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -7404,7 +7435,7 @@
         <v>4635323</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -7425,7 +7456,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -7445,8 +7476,11 @@
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -7467,8 +7501,15 @@
         <v>2020</v>
       </c>
       <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T13">
+        <v>3861069</v>
+      </c>
+      <c r="U13">
+        <f>T13/SUM($T$13:$T$16)</f>
+        <v>0.42436660486844541</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -7489,8 +7530,15 @@
         <v>2020</v>
       </c>
       <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T14">
+        <v>1475852</v>
+      </c>
+      <c r="U14">
+        <f t="shared" ref="U14:U16" si="4">T14/SUM($T$13:$T$16)</f>
+        <v>0.16220955971734896</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -7511,8 +7559,15 @@
         <v>2020</v>
       </c>
       <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15">
+        <v>1761781</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="4"/>
+        <v>0.19363575773749048</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -7533,6 +7588,13 @@
         <v>2020</v>
       </c>
       <c r="I16" s="4"/>
+      <c r="T16">
+        <v>1999726</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="4"/>
+        <v>0.21978807767671515</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -8603,7 +8665,7 @@
         <v>44044</v>
       </c>
       <c r="F67" s="3">
-        <f t="shared" ref="F67:F130" si="3">YEAR(E67)</f>
+        <f t="shared" ref="F67:F130" si="5">YEAR(E67)</f>
         <v>2020</v>
       </c>
     </row>
@@ -8624,7 +8686,7 @@
         <v>44044</v>
       </c>
       <c r="F68" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -8645,7 +8707,7 @@
         <v>44044</v>
       </c>
       <c r="F69" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -8666,7 +8728,7 @@
         <v>44044</v>
       </c>
       <c r="F70" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -8687,7 +8749,7 @@
         <v>44044</v>
       </c>
       <c r="F71" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -8708,7 +8770,7 @@
         <v>44044</v>
       </c>
       <c r="F72" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -8729,7 +8791,7 @@
         <v>44044</v>
       </c>
       <c r="F73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -8750,7 +8812,7 @@
         <v>44044</v>
       </c>
       <c r="F74" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -8771,7 +8833,7 @@
         <v>44013</v>
       </c>
       <c r="F75" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -8792,7 +8854,7 @@
         <v>44013</v>
       </c>
       <c r="F76" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -8813,7 +8875,7 @@
         <v>44013</v>
       </c>
       <c r="F77" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -8834,7 +8896,7 @@
         <v>44013</v>
       </c>
       <c r="F78" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -8855,7 +8917,7 @@
         <v>44013</v>
       </c>
       <c r="F79" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -8876,7 +8938,7 @@
         <v>44013</v>
       </c>
       <c r="F80" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -8897,7 +8959,7 @@
         <v>44013</v>
       </c>
       <c r="F81" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -8918,7 +8980,7 @@
         <v>44013</v>
       </c>
       <c r="F82" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -8939,7 +9001,7 @@
         <v>44013</v>
       </c>
       <c r="F83" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -8960,7 +9022,7 @@
         <v>44013</v>
       </c>
       <c r="F84" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -8981,7 +9043,7 @@
         <v>44013</v>
       </c>
       <c r="F85" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9002,7 +9064,7 @@
         <v>44013</v>
       </c>
       <c r="F86" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9023,7 +9085,7 @@
         <v>44013</v>
       </c>
       <c r="F87" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9044,7 +9106,7 @@
         <v>44013</v>
       </c>
       <c r="F88" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9065,7 +9127,7 @@
         <v>44013</v>
       </c>
       <c r="F89" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9086,7 +9148,7 @@
         <v>43983</v>
       </c>
       <c r="F90" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9107,7 +9169,7 @@
         <v>43983</v>
       </c>
       <c r="F91" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9128,7 +9190,7 @@
         <v>43983</v>
       </c>
       <c r="F92" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9149,7 +9211,7 @@
         <v>43983</v>
       </c>
       <c r="F93" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9170,7 +9232,7 @@
         <v>43983</v>
       </c>
       <c r="F94" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9191,7 +9253,7 @@
         <v>43983</v>
       </c>
       <c r="F95" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9212,7 +9274,7 @@
         <v>43983</v>
       </c>
       <c r="F96" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9233,7 +9295,7 @@
         <v>43983</v>
       </c>
       <c r="F97" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9254,7 +9316,7 @@
         <v>43983</v>
       </c>
       <c r="F98" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9275,7 +9337,7 @@
         <v>43983</v>
       </c>
       <c r="F99" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9296,7 +9358,7 @@
         <v>43983</v>
       </c>
       <c r="F100" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9317,7 +9379,7 @@
         <v>43983</v>
       </c>
       <c r="F101" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9338,7 +9400,7 @@
         <v>43983</v>
       </c>
       <c r="F102" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9359,7 +9421,7 @@
         <v>43983</v>
       </c>
       <c r="F103" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9380,7 +9442,7 @@
         <v>43983</v>
       </c>
       <c r="F104" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9401,7 +9463,7 @@
         <v>43952</v>
       </c>
       <c r="F105" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9422,7 +9484,7 @@
         <v>43952</v>
       </c>
       <c r="F106" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9443,7 +9505,7 @@
         <v>43952</v>
       </c>
       <c r="F107" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9464,7 +9526,7 @@
         <v>43952</v>
       </c>
       <c r="F108" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9485,7 +9547,7 @@
         <v>43952</v>
       </c>
       <c r="F109" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9506,7 +9568,7 @@
         <v>43952</v>
       </c>
       <c r="F110" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9527,7 +9589,7 @@
         <v>43952</v>
       </c>
       <c r="F111" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9548,7 +9610,7 @@
         <v>43952</v>
       </c>
       <c r="F112" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9569,7 +9631,7 @@
         <v>43952</v>
       </c>
       <c r="F113" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9590,7 +9652,7 @@
         <v>43952</v>
       </c>
       <c r="F114" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9611,7 +9673,7 @@
         <v>43952</v>
       </c>
       <c r="F115" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9632,7 +9694,7 @@
         <v>43952</v>
       </c>
       <c r="F116" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9653,7 +9715,7 @@
         <v>43952</v>
       </c>
       <c r="F117" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9674,7 +9736,7 @@
         <v>43952</v>
       </c>
       <c r="F118" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9695,7 +9757,7 @@
         <v>43952</v>
       </c>
       <c r="F119" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9716,7 +9778,7 @@
         <v>43952</v>
       </c>
       <c r="F120" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9737,7 +9799,7 @@
         <v>43952</v>
       </c>
       <c r="F121" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9758,7 +9820,7 @@
         <v>43952</v>
       </c>
       <c r="F122" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9779,7 +9841,7 @@
         <v>43952</v>
       </c>
       <c r="F123" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9800,7 +9862,7 @@
         <v>43952</v>
       </c>
       <c r="F124" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9821,7 +9883,7 @@
         <v>43952</v>
       </c>
       <c r="F125" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9842,7 +9904,7 @@
         <v>43952</v>
       </c>
       <c r="F126" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9863,7 +9925,7 @@
         <v>43952</v>
       </c>
       <c r="F127" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9884,7 +9946,7 @@
         <v>43952</v>
       </c>
       <c r="F128" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9905,7 +9967,7 @@
         <v>43952</v>
       </c>
       <c r="F129" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9926,7 +9988,7 @@
         <v>43952</v>
       </c>
       <c r="F130" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
@@ -9947,7 +10009,7 @@
         <v>43952</v>
       </c>
       <c r="F131" s="3">
-        <f t="shared" ref="F131:F194" si="4">YEAR(E131)</f>
+        <f t="shared" ref="F131:F194" si="6">YEAR(E131)</f>
         <v>2020</v>
       </c>
     </row>
@@ -9968,7 +10030,7 @@
         <v>43952</v>
       </c>
       <c r="F132" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -9989,7 +10051,7 @@
         <v>43952</v>
       </c>
       <c r="F133" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10010,7 +10072,7 @@
         <v>43922</v>
       </c>
       <c r="F134" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10031,7 +10093,7 @@
         <v>43922</v>
       </c>
       <c r="F135" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10052,7 +10114,7 @@
         <v>43922</v>
       </c>
       <c r="F136" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10073,7 +10135,7 @@
         <v>43922</v>
       </c>
       <c r="F137" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10094,7 +10156,7 @@
         <v>43922</v>
       </c>
       <c r="F138" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10115,7 +10177,7 @@
         <v>43922</v>
       </c>
       <c r="F139" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10136,7 +10198,7 @@
         <v>43922</v>
       </c>
       <c r="F140" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10157,7 +10219,7 @@
         <v>43922</v>
       </c>
       <c r="F141" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10178,7 +10240,7 @@
         <v>43922</v>
       </c>
       <c r="F142" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10199,7 +10261,7 @@
         <v>43922</v>
       </c>
       <c r="F143" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10220,7 +10282,7 @@
         <v>43922</v>
       </c>
       <c r="F144" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10241,7 +10303,7 @@
         <v>43922</v>
       </c>
       <c r="F145" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10262,7 +10324,7 @@
         <v>43922</v>
       </c>
       <c r="F146" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10283,7 +10345,7 @@
         <v>43922</v>
       </c>
       <c r="F147" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10304,7 +10366,7 @@
         <v>43922</v>
       </c>
       <c r="F148" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10325,7 +10387,7 @@
         <v>43922</v>
       </c>
       <c r="F149" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10346,7 +10408,7 @@
         <v>43922</v>
       </c>
       <c r="F150" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10367,7 +10429,7 @@
         <v>43922</v>
       </c>
       <c r="F151" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10388,7 +10450,7 @@
         <v>43922</v>
       </c>
       <c r="F152" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10409,7 +10471,7 @@
         <v>43922</v>
       </c>
       <c r="F153" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10430,7 +10492,7 @@
         <v>43922</v>
       </c>
       <c r="F154" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10451,7 +10513,7 @@
         <v>43922</v>
       </c>
       <c r="F155" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10472,7 +10534,7 @@
         <v>43922</v>
       </c>
       <c r="F156" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10493,7 +10555,7 @@
         <v>43922</v>
       </c>
       <c r="F157" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10514,7 +10576,7 @@
         <v>43922</v>
       </c>
       <c r="F158" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10535,7 +10597,7 @@
         <v>43922</v>
       </c>
       <c r="F159" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10556,7 +10618,7 @@
         <v>43922</v>
       </c>
       <c r="F160" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10577,7 +10639,7 @@
         <v>43922</v>
       </c>
       <c r="F161" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10598,7 +10660,7 @@
         <v>43922</v>
       </c>
       <c r="F162" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10619,7 +10681,7 @@
         <v>43922</v>
       </c>
       <c r="F163" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10640,7 +10702,7 @@
         <v>43922</v>
       </c>
       <c r="F164" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10661,7 +10723,7 @@
         <v>43922</v>
       </c>
       <c r="F165" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10682,7 +10744,7 @@
         <v>43922</v>
       </c>
       <c r="F166" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10703,7 +10765,7 @@
         <v>43922</v>
       </c>
       <c r="F167" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10724,7 +10786,7 @@
         <v>43922</v>
       </c>
       <c r="F168" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10745,7 +10807,7 @@
         <v>43891</v>
       </c>
       <c r="F169" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10766,7 +10828,7 @@
         <v>43891</v>
       </c>
       <c r="F170" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10787,7 +10849,7 @@
         <v>43891</v>
       </c>
       <c r="F171" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10808,7 +10870,7 @@
         <v>43891</v>
       </c>
       <c r="F172" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10829,7 +10891,7 @@
         <v>43891</v>
       </c>
       <c r="F173" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10850,7 +10912,7 @@
         <v>43891</v>
       </c>
       <c r="F174" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10871,7 +10933,7 @@
         <v>43891</v>
       </c>
       <c r="F175" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10892,7 +10954,7 @@
         <v>43891</v>
       </c>
       <c r="F176" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10913,7 +10975,7 @@
         <v>43891</v>
       </c>
       <c r="F177" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10934,7 +10996,7 @@
         <v>43891</v>
       </c>
       <c r="F178" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10955,7 +11017,7 @@
         <v>43891</v>
       </c>
       <c r="F179" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10976,7 +11038,7 @@
         <v>43891</v>
       </c>
       <c r="F180" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -10997,7 +11059,7 @@
         <v>43891</v>
       </c>
       <c r="F181" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -11018,7 +11080,7 @@
         <v>43891</v>
       </c>
       <c r="F182" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -11039,7 +11101,7 @@
         <v>43891</v>
       </c>
       <c r="F183" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -11060,7 +11122,7 @@
         <v>43891</v>
       </c>
       <c r="F184" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -11081,7 +11143,7 @@
         <v>43891</v>
       </c>
       <c r="F185" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -11102,7 +11164,7 @@
         <v>43891</v>
       </c>
       <c r="F186" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -11120,7 +11182,7 @@
         <v>43891</v>
       </c>
       <c r="F187" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -11141,7 +11203,7 @@
         <v>43891</v>
       </c>
       <c r="F188" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -11162,7 +11224,7 @@
         <v>43891</v>
       </c>
       <c r="F189" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -11183,7 +11245,7 @@
         <v>43891</v>
       </c>
       <c r="F190" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -11204,7 +11266,7 @@
         <v>43891</v>
       </c>
       <c r="F191" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -11225,7 +11287,7 @@
         <v>43862</v>
       </c>
       <c r="F192" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -11246,7 +11308,7 @@
         <v>43862</v>
       </c>
       <c r="F193" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -11267,7 +11329,7 @@
         <v>43862</v>
       </c>
       <c r="F194" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
     </row>
@@ -11288,7 +11350,7 @@
         <v>43862</v>
       </c>
       <c r="F195" s="3">
-        <f t="shared" ref="F195:F258" si="5">YEAR(E195)</f>
+        <f t="shared" ref="F195:F258" si="7">YEAR(E195)</f>
         <v>2020</v>
       </c>
     </row>
@@ -11309,7 +11371,7 @@
         <v>43862</v>
       </c>
       <c r="F196" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11330,7 +11392,7 @@
         <v>43862</v>
       </c>
       <c r="F197" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11351,7 +11413,7 @@
         <v>43862</v>
       </c>
       <c r="F198" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11372,7 +11434,7 @@
         <v>43862</v>
       </c>
       <c r="F199" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11393,7 +11455,7 @@
         <v>43862</v>
       </c>
       <c r="F200" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11414,7 +11476,7 @@
         <v>43862</v>
       </c>
       <c r="F201" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11435,7 +11497,7 @@
         <v>43862</v>
       </c>
       <c r="F202" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11456,7 +11518,7 @@
         <v>43862</v>
       </c>
       <c r="F203" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11477,7 +11539,7 @@
         <v>43862</v>
       </c>
       <c r="F204" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11498,7 +11560,7 @@
         <v>43862</v>
       </c>
       <c r="F205" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11519,7 +11581,7 @@
         <v>43862</v>
       </c>
       <c r="F206" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11540,7 +11602,7 @@
         <v>43862</v>
       </c>
       <c r="F207" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11561,7 +11623,7 @@
         <v>43862</v>
       </c>
       <c r="F208" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11582,7 +11644,7 @@
         <v>43862</v>
       </c>
       <c r="F209" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11603,7 +11665,7 @@
         <v>43862</v>
       </c>
       <c r="F210" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11624,7 +11686,7 @@
         <v>43862</v>
       </c>
       <c r="F211" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11645,7 +11707,7 @@
         <v>43862</v>
       </c>
       <c r="F212" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11666,7 +11728,7 @@
         <v>43862</v>
       </c>
       <c r="F213" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11687,7 +11749,7 @@
         <v>43862</v>
       </c>
       <c r="F214" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11708,7 +11770,7 @@
         <v>43862</v>
       </c>
       <c r="F215" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11729,7 +11791,7 @@
         <v>43862</v>
       </c>
       <c r="F216" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11750,7 +11812,7 @@
         <v>43862</v>
       </c>
       <c r="F217" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11771,7 +11833,7 @@
         <v>43862</v>
       </c>
       <c r="F218" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11792,7 +11854,7 @@
         <v>43862</v>
       </c>
       <c r="F219" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11813,7 +11875,7 @@
         <v>43831</v>
       </c>
       <c r="F220" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11834,7 +11896,7 @@
         <v>43831</v>
       </c>
       <c r="F221" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11855,7 +11917,7 @@
         <v>43831</v>
       </c>
       <c r="F222" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11876,7 +11938,7 @@
         <v>43831</v>
       </c>
       <c r="F223" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11894,7 +11956,7 @@
         <v>43831</v>
       </c>
       <c r="F224" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11915,7 +11977,7 @@
         <v>43831</v>
       </c>
       <c r="F225" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11936,7 +11998,7 @@
         <v>43831</v>
       </c>
       <c r="F226" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11957,7 +12019,7 @@
         <v>43831</v>
       </c>
       <c r="F227" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11978,7 +12040,7 @@
         <v>43831</v>
       </c>
       <c r="F228" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -11999,7 +12061,7 @@
         <v>43831</v>
       </c>
       <c r="F229" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -12020,7 +12082,7 @@
         <v>43831</v>
       </c>
       <c r="F230" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -12041,7 +12103,7 @@
         <v>43831</v>
       </c>
       <c r="F231" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -12062,7 +12124,7 @@
         <v>43831</v>
       </c>
       <c r="F232" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -12083,7 +12145,7 @@
         <v>43831</v>
       </c>
       <c r="F233" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -12104,7 +12166,7 @@
         <v>43831</v>
       </c>
       <c r="F234" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -12125,7 +12187,7 @@
         <v>43831</v>
       </c>
       <c r="F235" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -12146,7 +12208,7 @@
         <v>43831</v>
       </c>
       <c r="F236" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -12167,7 +12229,7 @@
         <v>43831</v>
       </c>
       <c r="F237" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -12188,7 +12250,7 @@
         <v>43831</v>
       </c>
       <c r="F238" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -12209,7 +12271,7 @@
         <v>43831</v>
       </c>
       <c r="F239" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -12230,7 +12292,7 @@
         <v>43831</v>
       </c>
       <c r="F240" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -12251,7 +12313,7 @@
         <v>43831</v>
       </c>
       <c r="F241" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -12272,7 +12334,7 @@
         <v>43831</v>
       </c>
       <c r="F242" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -12293,7 +12355,7 @@
         <v>43831</v>
       </c>
       <c r="F243" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -12314,7 +12376,7 @@
         <v>43831</v>
       </c>
       <c r="F244" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -12335,7 +12397,7 @@
         <v>43831</v>
       </c>
       <c r="F245" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -12356,7 +12418,7 @@
         <v>43831</v>
       </c>
       <c r="F246" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -12377,7 +12439,7 @@
         <v>43831</v>
       </c>
       <c r="F247" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -12398,7 +12460,7 @@
         <v>43831</v>
       </c>
       <c r="F248" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -12419,7 +12481,7 @@
         <v>43831</v>
       </c>
       <c r="F249" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -12440,7 +12502,7 @@
         <v>43831</v>
       </c>
       <c r="F250" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -12461,7 +12523,7 @@
         <v>43831</v>
       </c>
       <c r="F251" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -12482,7 +12544,7 @@
         <v>43831</v>
       </c>
       <c r="F252" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -12503,7 +12565,7 @@
         <v>43831</v>
       </c>
       <c r="F253" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -12524,7 +12586,7 @@
         <v>43831</v>
       </c>
       <c r="F254" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -12545,7 +12607,7 @@
         <v>43800</v>
       </c>
       <c r="F255" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2019</v>
       </c>
     </row>
@@ -12566,7 +12628,7 @@
         <v>43800</v>
       </c>
       <c r="F256" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2019</v>
       </c>
     </row>
@@ -12587,7 +12649,7 @@
         <v>43800</v>
       </c>
       <c r="F257" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2019</v>
       </c>
     </row>
@@ -12608,7 +12670,7 @@
         <v>43800</v>
       </c>
       <c r="F258" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2019</v>
       </c>
     </row>
@@ -12629,7 +12691,7 @@
         <v>43800</v>
       </c>
       <c r="F259" s="3">
-        <f t="shared" ref="F259:F322" si="6">YEAR(E259)</f>
+        <f t="shared" ref="F259:F322" si="8">YEAR(E259)</f>
         <v>2019</v>
       </c>
     </row>
@@ -12650,7 +12712,7 @@
         <v>43800</v>
       </c>
       <c r="F260" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -12671,7 +12733,7 @@
         <v>43800</v>
       </c>
       <c r="F261" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -12692,7 +12754,7 @@
         <v>43800</v>
       </c>
       <c r="F262" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -12713,7 +12775,7 @@
         <v>43800</v>
       </c>
       <c r="F263" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -12734,7 +12796,7 @@
         <v>43800</v>
       </c>
       <c r="F264" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -12755,7 +12817,7 @@
         <v>43800</v>
       </c>
       <c r="F265" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -12776,7 +12838,7 @@
         <v>43800</v>
       </c>
       <c r="F266" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -12797,7 +12859,7 @@
         <v>43800</v>
       </c>
       <c r="F267" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -12818,7 +12880,7 @@
         <v>43800</v>
       </c>
       <c r="F268" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -12839,7 +12901,7 @@
         <v>43800</v>
       </c>
       <c r="F269" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -12860,7 +12922,7 @@
         <v>43800</v>
       </c>
       <c r="F270" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -12881,7 +12943,7 @@
         <v>43800</v>
       </c>
       <c r="F271" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -12902,7 +12964,7 @@
         <v>43800</v>
       </c>
       <c r="F272" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -12923,7 +12985,7 @@
         <v>43800</v>
       </c>
       <c r="F273" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -12944,7 +13006,7 @@
         <v>43800</v>
       </c>
       <c r="F274" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -12965,7 +13027,7 @@
         <v>43800</v>
       </c>
       <c r="F275" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -12986,7 +13048,7 @@
         <v>43800</v>
       </c>
       <c r="F276" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13007,7 +13069,7 @@
         <v>43800</v>
       </c>
       <c r="F277" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13028,7 +13090,7 @@
         <v>43800</v>
       </c>
       <c r="F278" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13049,7 +13111,7 @@
         <v>43800</v>
       </c>
       <c r="F279" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13070,7 +13132,7 @@
         <v>43800</v>
       </c>
       <c r="F280" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13091,7 +13153,7 @@
         <v>43800</v>
       </c>
       <c r="F281" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13112,7 +13174,7 @@
         <v>43800</v>
       </c>
       <c r="F282" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13133,7 +13195,7 @@
         <v>43800</v>
       </c>
       <c r="F283" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13154,7 +13216,7 @@
         <v>43800</v>
       </c>
       <c r="F284" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13175,7 +13237,7 @@
         <v>43800</v>
       </c>
       <c r="F285" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13196,7 +13258,7 @@
         <v>43770</v>
       </c>
       <c r="F286" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13217,7 +13279,7 @@
         <v>43770</v>
       </c>
       <c r="F287" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13238,7 +13300,7 @@
         <v>43770</v>
       </c>
       <c r="F288" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13259,7 +13321,7 @@
         <v>43770</v>
       </c>
       <c r="F289" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13280,7 +13342,7 @@
         <v>43770</v>
       </c>
       <c r="F290" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13301,7 +13363,7 @@
         <v>43770</v>
       </c>
       <c r="F291" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13322,7 +13384,7 @@
         <v>43770</v>
       </c>
       <c r="F292" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13343,7 +13405,7 @@
         <v>43770</v>
       </c>
       <c r="F293" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13364,7 +13426,7 @@
         <v>43770</v>
       </c>
       <c r="F294" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13385,7 +13447,7 @@
         <v>43770</v>
       </c>
       <c r="F295" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13406,7 +13468,7 @@
         <v>43770</v>
       </c>
       <c r="F296" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13427,7 +13489,7 @@
         <v>43770</v>
       </c>
       <c r="F297" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13448,7 +13510,7 @@
         <v>43770</v>
       </c>
       <c r="F298" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13469,7 +13531,7 @@
         <v>43770</v>
       </c>
       <c r="F299" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13490,7 +13552,7 @@
         <v>43770</v>
       </c>
       <c r="F300" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13511,7 +13573,7 @@
         <v>43770</v>
       </c>
       <c r="F301" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13532,7 +13594,7 @@
         <v>43770</v>
       </c>
       <c r="F302" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13553,7 +13615,7 @@
         <v>43739</v>
       </c>
       <c r="F303" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13574,7 +13636,7 @@
         <v>43739</v>
       </c>
       <c r="F304" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13595,7 +13657,7 @@
         <v>43739</v>
       </c>
       <c r="F305" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13616,7 +13678,7 @@
         <v>43739</v>
       </c>
       <c r="F306" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13637,7 +13699,7 @@
         <v>43739</v>
       </c>
       <c r="F307" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13658,7 +13720,7 @@
         <v>43739</v>
       </c>
       <c r="F308" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13679,7 +13741,7 @@
         <v>43739</v>
       </c>
       <c r="F309" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13700,7 +13762,7 @@
         <v>43739</v>
       </c>
       <c r="F310" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13721,7 +13783,7 @@
         <v>43739</v>
       </c>
       <c r="F311" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13742,7 +13804,7 @@
         <v>43739</v>
       </c>
       <c r="F312" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13763,7 +13825,7 @@
         <v>43739</v>
       </c>
       <c r="F313" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13784,7 +13846,7 @@
         <v>43739</v>
       </c>
       <c r="F314" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13805,7 +13867,7 @@
         <v>43739</v>
       </c>
       <c r="F315" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13826,7 +13888,7 @@
         <v>43739</v>
       </c>
       <c r="F316" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13847,7 +13909,7 @@
         <v>43739</v>
       </c>
       <c r="F317" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13868,7 +13930,7 @@
         <v>43739</v>
       </c>
       <c r="F318" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13889,7 +13951,7 @@
         <v>43739</v>
       </c>
       <c r="F319" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13910,7 +13972,7 @@
         <v>43739</v>
       </c>
       <c r="F320" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13931,7 +13993,7 @@
         <v>43739</v>
       </c>
       <c r="F321" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13952,7 +14014,7 @@
         <v>43709</v>
       </c>
       <c r="F322" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
@@ -13973,7 +14035,7 @@
         <v>43709</v>
       </c>
       <c r="F323" s="3">
-        <f t="shared" ref="F323:F386" si="7">YEAR(E323)</f>
+        <f t="shared" ref="F323:F386" si="9">YEAR(E323)</f>
         <v>2019</v>
       </c>
     </row>
@@ -13994,7 +14056,7 @@
         <v>43709</v>
       </c>
       <c r="F324" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14015,7 +14077,7 @@
         <v>43709</v>
       </c>
       <c r="F325" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14036,7 +14098,7 @@
         <v>43709</v>
       </c>
       <c r="F326" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14057,7 +14119,7 @@
         <v>43709</v>
       </c>
       <c r="F327" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14078,7 +14140,7 @@
         <v>43709</v>
       </c>
       <c r="F328" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14099,7 +14161,7 @@
         <v>43709</v>
       </c>
       <c r="F329" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14120,7 +14182,7 @@
         <v>43709</v>
       </c>
       <c r="F330" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14141,7 +14203,7 @@
         <v>43709</v>
       </c>
       <c r="F331" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14162,7 +14224,7 @@
         <v>43709</v>
       </c>
       <c r="F332" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14183,7 +14245,7 @@
         <v>43709</v>
       </c>
       <c r="F333" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14204,7 +14266,7 @@
         <v>43709</v>
       </c>
       <c r="F334" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14225,7 +14287,7 @@
         <v>43709</v>
       </c>
       <c r="F335" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14246,7 +14308,7 @@
         <v>43678</v>
       </c>
       <c r="F336" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14267,7 +14329,7 @@
         <v>43678</v>
       </c>
       <c r="F337" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14288,7 +14350,7 @@
         <v>43678</v>
       </c>
       <c r="F338" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14309,7 +14371,7 @@
         <v>43678</v>
       </c>
       <c r="F339" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14330,7 +14392,7 @@
         <v>43678</v>
       </c>
       <c r="F340" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14351,7 +14413,7 @@
         <v>43678</v>
       </c>
       <c r="F341" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14372,7 +14434,7 @@
         <v>43678</v>
       </c>
       <c r="F342" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14393,7 +14455,7 @@
         <v>43678</v>
       </c>
       <c r="F343" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14414,7 +14476,7 @@
         <v>43678</v>
       </c>
       <c r="F344" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14435,7 +14497,7 @@
         <v>43678</v>
       </c>
       <c r="F345" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14456,7 +14518,7 @@
         <v>43678</v>
       </c>
       <c r="F346" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14477,7 +14539,7 @@
         <v>43678</v>
       </c>
       <c r="F347" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14498,7 +14560,7 @@
         <v>43678</v>
       </c>
       <c r="F348" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14519,7 +14581,7 @@
         <v>43678</v>
       </c>
       <c r="F349" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14540,7 +14602,7 @@
         <v>43678</v>
       </c>
       <c r="F350" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14561,7 +14623,7 @@
         <v>43678</v>
       </c>
       <c r="F351" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14582,7 +14644,7 @@
         <v>43678</v>
       </c>
       <c r="F352" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14603,7 +14665,7 @@
         <v>43678</v>
       </c>
       <c r="F353" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14624,7 +14686,7 @@
         <v>43678</v>
       </c>
       <c r="F354" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14645,7 +14707,7 @@
         <v>43678</v>
       </c>
       <c r="F355" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14666,7 +14728,7 @@
         <v>43678</v>
       </c>
       <c r="F356" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14687,7 +14749,7 @@
         <v>43678</v>
       </c>
       <c r="F357" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14708,7 +14770,7 @@
         <v>43678</v>
       </c>
       <c r="F358" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14729,7 +14791,7 @@
         <v>43647</v>
       </c>
       <c r="F359" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14750,7 +14812,7 @@
         <v>43647</v>
       </c>
       <c r="F360" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14771,7 +14833,7 @@
         <v>43647</v>
       </c>
       <c r="F361" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14792,7 +14854,7 @@
         <v>43647</v>
       </c>
       <c r="F362" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14813,7 +14875,7 @@
         <v>43647</v>
       </c>
       <c r="F363" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14834,7 +14896,7 @@
         <v>43647</v>
       </c>
       <c r="F364" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14855,7 +14917,7 @@
         <v>43647</v>
       </c>
       <c r="F365" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14876,7 +14938,7 @@
         <v>43647</v>
       </c>
       <c r="F366" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14897,7 +14959,7 @@
         <v>43647</v>
       </c>
       <c r="F367" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14918,7 +14980,7 @@
         <v>43647</v>
       </c>
       <c r="F368" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14939,7 +15001,7 @@
         <v>43647</v>
       </c>
       <c r="F369" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14960,7 +15022,7 @@
         <v>43647</v>
       </c>
       <c r="F370" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -14981,7 +15043,7 @@
         <v>43647</v>
       </c>
       <c r="F371" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -15002,7 +15064,7 @@
         <v>43647</v>
       </c>
       <c r="F372" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -15023,7 +15085,7 @@
         <v>43647</v>
       </c>
       <c r="F373" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -15044,7 +15106,7 @@
         <v>43647</v>
       </c>
       <c r="F374" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -15065,7 +15127,7 @@
         <v>43647</v>
       </c>
       <c r="F375" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -15086,7 +15148,7 @@
         <v>43647</v>
       </c>
       <c r="F376" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -15107,7 +15169,7 @@
         <v>43647</v>
       </c>
       <c r="F377" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -15128,7 +15190,7 @@
         <v>43617</v>
       </c>
       <c r="F378" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -15149,7 +15211,7 @@
         <v>43617</v>
       </c>
       <c r="F379" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -15170,7 +15232,7 @@
         <v>43617</v>
       </c>
       <c r="F380" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -15191,7 +15253,7 @@
         <v>43617</v>
       </c>
       <c r="F381" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -15212,7 +15274,7 @@
         <v>43617</v>
       </c>
       <c r="F382" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -15233,7 +15295,7 @@
         <v>43617</v>
       </c>
       <c r="F383" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -15254,7 +15316,7 @@
         <v>43617</v>
       </c>
       <c r="F384" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -15275,7 +15337,7 @@
         <v>43617</v>
       </c>
       <c r="F385" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -15296,7 +15358,7 @@
         <v>43617</v>
       </c>
       <c r="F386" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2019</v>
       </c>
     </row>
@@ -15317,7 +15379,7 @@
         <v>43617</v>
       </c>
       <c r="F387" s="3">
-        <f t="shared" ref="F387:F450" si="8">YEAR(E387)</f>
+        <f t="shared" ref="F387:F450" si="10">YEAR(E387)</f>
         <v>2019</v>
       </c>
     </row>
@@ -15338,7 +15400,7 @@
         <v>43617</v>
       </c>
       <c r="F388" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -15359,7 +15421,7 @@
         <v>43617</v>
       </c>
       <c r="F389" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -15380,7 +15442,7 @@
         <v>43617</v>
       </c>
       <c r="F390" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -15401,7 +15463,7 @@
         <v>43617</v>
       </c>
       <c r="F391" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -15422,7 +15484,7 @@
         <v>43586</v>
       </c>
       <c r="F392" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -15443,7 +15505,7 @@
         <v>43586</v>
       </c>
       <c r="F393" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -15464,7 +15526,7 @@
         <v>43586</v>
       </c>
       <c r="F394" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -15485,7 +15547,7 @@
         <v>43586</v>
       </c>
       <c r="F395" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -15506,7 +15568,7 @@
         <v>43586</v>
       </c>
       <c r="F396" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -15527,7 +15589,7 @@
         <v>43586</v>
       </c>
       <c r="F397" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -15548,7 +15610,7 @@
         <v>43586</v>
       </c>
       <c r="F398" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -15569,7 +15631,7 @@
         <v>43586</v>
       </c>
       <c r="F399" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -15590,7 +15652,7 @@
         <v>43586</v>
       </c>
       <c r="F400" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -15611,7 +15673,7 @@
         <v>43586</v>
       </c>
       <c r="F401" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -15632,7 +15694,7 @@
         <v>43586</v>
       </c>
       <c r="F402" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -15653,7 +15715,7 @@
         <v>43586</v>
       </c>
       <c r="F403" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -15674,7 +15736,7 @@
         <v>43586</v>
       </c>
       <c r="F404" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -15695,7 +15757,7 @@
         <v>43586</v>
       </c>
       <c r="F405" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -15716,7 +15778,7 @@
         <v>43586</v>
       </c>
       <c r="F406" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -15737,7 +15799,7 @@
         <v>43556</v>
       </c>
       <c r="F407" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -15758,7 +15820,7 @@
         <v>43556</v>
       </c>
       <c r="F408" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -15779,7 +15841,7 @@
         <v>43556</v>
       </c>
       <c r="F409" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -15800,7 +15862,7 @@
         <v>43556</v>
       </c>
       <c r="F410" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -15821,7 +15883,7 @@
         <v>43556</v>
       </c>
       <c r="F411" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -15842,7 +15904,7 @@
         <v>43556</v>
       </c>
       <c r="F412" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -15863,7 +15925,7 @@
         <v>43556</v>
       </c>
       <c r="F413" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -15884,7 +15946,7 @@
         <v>43556</v>
       </c>
       <c r="F414" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -15905,7 +15967,7 @@
         <v>43556</v>
       </c>
       <c r="F415" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -15926,7 +15988,7 @@
         <v>43556</v>
       </c>
       <c r="F416" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -15947,7 +16009,7 @@
         <v>43556</v>
       </c>
       <c r="F417" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -15968,7 +16030,7 @@
         <v>43556</v>
       </c>
       <c r="F418" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -15989,7 +16051,7 @@
         <v>43556</v>
       </c>
       <c r="F419" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -16010,7 +16072,7 @@
         <v>43556</v>
       </c>
       <c r="F420" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -16031,7 +16093,7 @@
         <v>43556</v>
       </c>
       <c r="F421" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -16052,7 +16114,7 @@
         <v>43556</v>
       </c>
       <c r="F422" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -16073,7 +16135,7 @@
         <v>43525</v>
       </c>
       <c r="F423" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -16094,7 +16156,7 @@
         <v>43525</v>
       </c>
       <c r="F424" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -16115,7 +16177,7 @@
         <v>43525</v>
       </c>
       <c r="F425" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -16136,7 +16198,7 @@
         <v>43525</v>
       </c>
       <c r="F426" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -16157,7 +16219,7 @@
         <v>43525</v>
       </c>
       <c r="F427" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -16178,7 +16240,7 @@
         <v>43525</v>
       </c>
       <c r="F428" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -16199,7 +16261,7 @@
         <v>43525</v>
       </c>
       <c r="F429" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -16220,7 +16282,7 @@
         <v>43525</v>
       </c>
       <c r="F430" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -16241,7 +16303,7 @@
         <v>43525</v>
       </c>
       <c r="F431" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -16262,7 +16324,7 @@
         <v>43525</v>
       </c>
       <c r="F432" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -16283,7 +16345,7 @@
         <v>43525</v>
       </c>
       <c r="F433" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -16304,7 +16366,7 @@
         <v>43525</v>
       </c>
       <c r="F434" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -16325,7 +16387,7 @@
         <v>43525</v>
       </c>
       <c r="F435" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -16346,7 +16408,7 @@
         <v>43525</v>
       </c>
       <c r="F436" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -16367,7 +16429,7 @@
         <v>43525</v>
       </c>
       <c r="F437" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -16388,7 +16450,7 @@
         <v>43525</v>
       </c>
       <c r="F438" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -16409,7 +16471,7 @@
         <v>43525</v>
       </c>
       <c r="F439" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -16430,7 +16492,7 @@
         <v>43525</v>
       </c>
       <c r="F440" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -16451,7 +16513,7 @@
         <v>43525</v>
       </c>
       <c r="F441" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -16472,7 +16534,7 @@
         <v>43525</v>
       </c>
       <c r="F442" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -16493,7 +16555,7 @@
         <v>43525</v>
       </c>
       <c r="F443" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -16514,7 +16576,7 @@
         <v>43525</v>
       </c>
       <c r="F444" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -16535,7 +16597,7 @@
         <v>43525</v>
       </c>
       <c r="F445" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -16556,7 +16618,7 @@
         <v>43525</v>
       </c>
       <c r="F446" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -16577,7 +16639,7 @@
         <v>43497</v>
       </c>
       <c r="F447" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -16598,7 +16660,7 @@
         <v>43497</v>
       </c>
       <c r="F448" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -16619,7 +16681,7 @@
         <v>43497</v>
       </c>
       <c r="F449" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -16640,7 +16702,7 @@
         <v>43497</v>
       </c>
       <c r="F450" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
     </row>
@@ -16661,7 +16723,7 @@
         <v>43497</v>
       </c>
       <c r="F451" s="3">
-        <f t="shared" ref="F451:F514" si="9">YEAR(E451)</f>
+        <f t="shared" ref="F451:F514" si="11">YEAR(E451)</f>
         <v>2019</v>
       </c>
     </row>
@@ -16682,7 +16744,7 @@
         <v>43497</v>
       </c>
       <c r="F452" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -16703,7 +16765,7 @@
         <v>43497</v>
       </c>
       <c r="F453" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -16724,7 +16786,7 @@
         <v>43497</v>
       </c>
       <c r="F454" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -16745,7 +16807,7 @@
         <v>43497</v>
       </c>
       <c r="F455" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -16766,7 +16828,7 @@
         <v>43497</v>
       </c>
       <c r="F456" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -16787,7 +16849,7 @@
         <v>43497</v>
       </c>
       <c r="F457" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -16808,7 +16870,7 @@
         <v>43497</v>
       </c>
       <c r="F458" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -16829,7 +16891,7 @@
         <v>43497</v>
       </c>
       <c r="F459" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -16850,7 +16912,7 @@
         <v>43497</v>
       </c>
       <c r="F460" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -16871,7 +16933,7 @@
         <v>43497</v>
       </c>
       <c r="F461" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -16892,7 +16954,7 @@
         <v>43497</v>
       </c>
       <c r="F462" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -16913,7 +16975,7 @@
         <v>43497</v>
       </c>
       <c r="F463" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -16934,7 +16996,7 @@
         <v>43497</v>
       </c>
       <c r="F464" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -16955,7 +17017,7 @@
         <v>43497</v>
       </c>
       <c r="F465" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -16976,7 +17038,7 @@
         <v>43466</v>
       </c>
       <c r="F466" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -16997,7 +17059,7 @@
         <v>43466</v>
       </c>
       <c r="F467" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -17018,7 +17080,7 @@
         <v>43466</v>
       </c>
       <c r="F468" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -17039,7 +17101,7 @@
         <v>43466</v>
       </c>
       <c r="F469" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -17060,7 +17122,7 @@
         <v>43466</v>
       </c>
       <c r="F470" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -17081,7 +17143,7 @@
         <v>43466</v>
       </c>
       <c r="F471" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -17102,7 +17164,7 @@
         <v>43466</v>
       </c>
       <c r="F472" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -17123,7 +17185,7 @@
         <v>43466</v>
       </c>
       <c r="F473" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -17144,7 +17206,7 @@
         <v>43466</v>
       </c>
       <c r="F474" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -17165,7 +17227,7 @@
         <v>43466</v>
       </c>
       <c r="F475" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -17186,7 +17248,7 @@
         <v>43466</v>
       </c>
       <c r="F476" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -17207,7 +17269,7 @@
         <v>43466</v>
       </c>
       <c r="F477" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -17228,7 +17290,7 @@
         <v>43466</v>
       </c>
       <c r="F478" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -17249,7 +17311,7 @@
         <v>43466</v>
       </c>
       <c r="F479" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -17270,7 +17332,7 @@
         <v>43466</v>
       </c>
       <c r="F480" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -17291,7 +17353,7 @@
         <v>43466</v>
       </c>
       <c r="F481" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -17312,7 +17374,7 @@
         <v>43466</v>
       </c>
       <c r="F482" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -17333,7 +17395,7 @@
         <v>43466</v>
       </c>
       <c r="F483" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -17354,7 +17416,7 @@
         <v>43466</v>
       </c>
       <c r="F484" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -17375,7 +17437,7 @@
         <v>43466</v>
       </c>
       <c r="F485" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -17396,7 +17458,7 @@
         <v>43466</v>
       </c>
       <c r="F486" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -17417,7 +17479,7 @@
         <v>43466</v>
       </c>
       <c r="F487" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
@@ -17438,7 +17500,7 @@
         <v>43435</v>
       </c>
       <c r="F488" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2018</v>
       </c>
     </row>
@@ -17459,7 +17521,7 @@
         <v>43435</v>
       </c>
       <c r="F489" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2018</v>
       </c>
     </row>
@@ -17480,7 +17542,7 @@
         <v>43435</v>
       </c>
       <c r="F490" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2018</v>
       </c>
     </row>
@@ -17501,7 +17563,7 @@
         <v>43435</v>
       </c>
       <c r="F491" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2018</v>
       </c>
     </row>
@@ -17522,7 +17584,7 @@
         <v>43435</v>
       </c>
       <c r="F492" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2018</v>
       </c>
     </row>
@@ -17543,7 +17605,7 @@
         <v>43435</v>
       </c>
       <c r="F493" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2018</v>
       </c>
     </row>
@@ -17564,7 +17626,7 @@
         <v>43435</v>
       </c>
       <c r="F494" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2018</v>
       </c>
     </row>
@@ -17585,7 +17647,7 @@
         <v>43435</v>
       </c>
       <c r="F495" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2018</v>
       </c>
     </row>
@@ -17606,7 +17668,7 @@
         <v>43435</v>
       </c>
       <c r="F496" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2018</v>
       </c>
     </row>
@@ -17627,7 +17689,7 @@
         <v>43435</v>
       </c>
       <c r="F497" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2018</v>
       </c>
     </row>
@@ -17648,7 +17710,7 @@
         <v>43435</v>
       </c>
       <c r="F498" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2018</v>
       </c>
     </row>
@@ -17669,7 +17731,7 @@
         <v>43435</v>
       </c>
       <c r="F499" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2018</v>
       </c>
     </row>
@@ -17690,7 +17752,7 @@
         <v>43435</v>
       </c>
       <c r="F500" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2018</v>
       </c>
     </row>
@@ -17711,7 +17773,7 @@
         <v>43435</v>
       </c>
       <c r="F501" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2018</v>
       </c>
     </row>
@@ -17732,7 +17794,7 @@
         <v>43435</v>
       </c>
       <c r="F502" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2018</v>
       </c>
     </row>
@@ -17753,7 +17815,7 @@
         <v>43435</v>
       </c>
       <c r="F503" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2018</v>
       </c>
     </row>
@@ -17774,7 +17836,7 @@
         <v>43435</v>
       </c>
       <c r="F504" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2018</v>
       </c>
     </row>
@@ -17795,7 +17857,7 @@
         <v>43435</v>
       </c>
       <c r="F505" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2018</v>
       </c>
     </row>
@@ -17816,7 +17878,7 @@
         <v>43435</v>
       </c>
       <c r="F506" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2018</v>
       </c>
     </row>
@@ -17837,7 +17899,7 @@
         <v>43435</v>
       </c>
       <c r="F507" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2018</v>
       </c>
     </row>
@@ -17858,7 +17920,7 @@
         <v>43435</v>
       </c>
       <c r="F508" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2018</v>
       </c>
     </row>
@@ -17879,7 +17941,7 @@
         <v>43435</v>
       </c>
       <c r="F509" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2018</v>
       </c>
     </row>
@@ -17900,7 +17962,7 @@
         <v>43435</v>
       </c>
       <c r="F510" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2018</v>
       </c>
     </row>
@@ -17921,7 +17983,7 @@
         <v>43435</v>
       </c>
       <c r="F511" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2018</v>
       </c>
     </row>
@@ -17942,7 +18004,7 @@
         <v>43435</v>
       </c>
       <c r="F512" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2018</v>
       </c>
     </row>
@@ -17963,7 +18025,7 @@
         <v>43405</v>
       </c>
       <c r="F513" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2018</v>
       </c>
     </row>
@@ -17984,7 +18046,7 @@
         <v>43405</v>
       </c>
       <c r="F514" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2018</v>
       </c>
     </row>
@@ -18005,7 +18067,7 @@
         <v>43405</v>
       </c>
       <c r="F515" s="3">
-        <f t="shared" ref="F515:F578" si="10">YEAR(E515)</f>
+        <f t="shared" ref="F515:F578" si="12">YEAR(E515)</f>
         <v>2018</v>
       </c>
     </row>
@@ -18026,7 +18088,7 @@
         <v>43405</v>
       </c>
       <c r="F516" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18044,7 +18106,7 @@
         <v>43405</v>
       </c>
       <c r="F517" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18065,7 +18127,7 @@
         <v>43405</v>
       </c>
       <c r="F518" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18086,7 +18148,7 @@
         <v>43405</v>
       </c>
       <c r="F519" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18107,7 +18169,7 @@
         <v>43405</v>
       </c>
       <c r="F520" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18128,7 +18190,7 @@
         <v>43405</v>
       </c>
       <c r="F521" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18149,7 +18211,7 @@
         <v>43405</v>
       </c>
       <c r="F522" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18170,7 +18232,7 @@
         <v>43405</v>
       </c>
       <c r="F523" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18191,7 +18253,7 @@
         <v>43405</v>
       </c>
       <c r="F524" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18212,7 +18274,7 @@
         <v>43405</v>
       </c>
       <c r="F525" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18233,7 +18295,7 @@
         <v>43405</v>
       </c>
       <c r="F526" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18254,7 +18316,7 @@
         <v>43405</v>
       </c>
       <c r="F527" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18275,7 +18337,7 @@
         <v>43405</v>
       </c>
       <c r="F528" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18296,7 +18358,7 @@
         <v>43374</v>
       </c>
       <c r="F529" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18317,7 +18379,7 @@
         <v>43374</v>
       </c>
       <c r="F530" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18338,7 +18400,7 @@
         <v>43374</v>
       </c>
       <c r="F531" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18359,7 +18421,7 @@
         <v>43374</v>
       </c>
       <c r="F532" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18380,7 +18442,7 @@
         <v>43374</v>
       </c>
       <c r="F533" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18401,7 +18463,7 @@
         <v>43374</v>
       </c>
       <c r="F534" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18422,7 +18484,7 @@
         <v>43374</v>
       </c>
       <c r="F535" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18443,7 +18505,7 @@
         <v>43374</v>
       </c>
       <c r="F536" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18464,7 +18526,7 @@
         <v>43374</v>
       </c>
       <c r="F537" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18485,7 +18547,7 @@
         <v>43374</v>
       </c>
       <c r="F538" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18506,7 +18568,7 @@
         <v>43374</v>
       </c>
       <c r="F539" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18527,7 +18589,7 @@
         <v>43374</v>
       </c>
       <c r="F540" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18548,7 +18610,7 @@
         <v>43374</v>
       </c>
       <c r="F541" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18569,7 +18631,7 @@
         <v>43374</v>
       </c>
       <c r="F542" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18590,7 +18652,7 @@
         <v>43374</v>
       </c>
       <c r="F543" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18611,7 +18673,7 @@
         <v>43374</v>
       </c>
       <c r="F544" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18632,7 +18694,7 @@
         <v>43374</v>
       </c>
       <c r="F545" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18653,7 +18715,7 @@
         <v>43344</v>
       </c>
       <c r="F546" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18674,7 +18736,7 @@
         <v>43344</v>
       </c>
       <c r="F547" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18695,7 +18757,7 @@
         <v>43344</v>
       </c>
       <c r="F548" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18716,7 +18778,7 @@
         <v>43344</v>
       </c>
       <c r="F549" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18737,7 +18799,7 @@
         <v>43313</v>
       </c>
       <c r="F550" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18758,7 +18820,7 @@
         <v>43313</v>
       </c>
       <c r="F551" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18779,7 +18841,7 @@
         <v>43313</v>
       </c>
       <c r="F552" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18800,7 +18862,7 @@
         <v>43313</v>
       </c>
       <c r="F553" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18821,7 +18883,7 @@
         <v>43313</v>
       </c>
       <c r="F554" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18842,7 +18904,7 @@
         <v>43313</v>
       </c>
       <c r="F555" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18863,7 +18925,7 @@
         <v>43313</v>
       </c>
       <c r="F556" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18884,7 +18946,7 @@
         <v>43313</v>
       </c>
       <c r="F557" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18905,7 +18967,7 @@
         <v>43313</v>
       </c>
       <c r="F558" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18926,7 +18988,7 @@
         <v>43313</v>
       </c>
       <c r="F559" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18947,7 +19009,7 @@
         <v>43313</v>
       </c>
       <c r="F560" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18968,7 +19030,7 @@
         <v>43313</v>
       </c>
       <c r="F561" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -18989,7 +19051,7 @@
         <v>43313</v>
       </c>
       <c r="F562" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -19010,7 +19072,7 @@
         <v>43313</v>
       </c>
       <c r="F563" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -19031,7 +19093,7 @@
         <v>43313</v>
       </c>
       <c r="F564" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -19052,7 +19114,7 @@
         <v>43313</v>
       </c>
       <c r="F565" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -19073,7 +19135,7 @@
         <v>43282</v>
       </c>
       <c r="F566" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -19094,7 +19156,7 @@
         <v>43282</v>
       </c>
       <c r="F567" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -19115,7 +19177,7 @@
         <v>43282</v>
       </c>
       <c r="F568" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -19136,7 +19198,7 @@
         <v>43282</v>
       </c>
       <c r="F569" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -19157,7 +19219,7 @@
         <v>43282</v>
       </c>
       <c r="F570" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -19178,7 +19240,7 @@
         <v>43282</v>
       </c>
       <c r="F571" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -19199,7 +19261,7 @@
         <v>43282</v>
       </c>
       <c r="F572" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -19220,7 +19282,7 @@
         <v>43282</v>
       </c>
       <c r="F573" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -19241,7 +19303,7 @@
         <v>43282</v>
       </c>
       <c r="F574" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -19262,7 +19324,7 @@
         <v>43282</v>
       </c>
       <c r="F575" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -19283,7 +19345,7 @@
         <v>43282</v>
       </c>
       <c r="F576" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -19304,7 +19366,7 @@
         <v>43282</v>
       </c>
       <c r="F577" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -19325,7 +19387,7 @@
         <v>43282</v>
       </c>
       <c r="F578" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
     </row>
@@ -19346,7 +19408,7 @@
         <v>43282</v>
       </c>
       <c r="F579" s="3">
-        <f t="shared" ref="F579:F642" si="11">YEAR(E579)</f>
+        <f t="shared" ref="F579:F642" si="13">YEAR(E579)</f>
         <v>2018</v>
       </c>
     </row>
@@ -19367,7 +19429,7 @@
         <v>43252</v>
       </c>
       <c r="F580" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -19388,7 +19450,7 @@
         <v>43252</v>
       </c>
       <c r="F581" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -19409,7 +19471,7 @@
         <v>43252</v>
       </c>
       <c r="F582" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -19430,7 +19492,7 @@
         <v>43252</v>
       </c>
       <c r="F583" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -19451,7 +19513,7 @@
         <v>43252</v>
       </c>
       <c r="F584" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -19472,7 +19534,7 @@
         <v>43252</v>
       </c>
       <c r="F585" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -19493,7 +19555,7 @@
         <v>43252</v>
       </c>
       <c r="F586" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -19514,7 +19576,7 @@
         <v>43252</v>
       </c>
       <c r="F587" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -19535,7 +19597,7 @@
         <v>43252</v>
       </c>
       <c r="F588" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -19556,7 +19618,7 @@
         <v>43252</v>
       </c>
       <c r="F589" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -19577,7 +19639,7 @@
         <v>43252</v>
       </c>
       <c r="F590" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -19598,7 +19660,7 @@
         <v>43252</v>
       </c>
       <c r="F591" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -19619,7 +19681,7 @@
         <v>43252</v>
       </c>
       <c r="F592" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -19640,7 +19702,7 @@
         <v>43252</v>
       </c>
       <c r="F593" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -19661,7 +19723,7 @@
         <v>43252</v>
       </c>
       <c r="F594" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -19682,7 +19744,7 @@
         <v>43252</v>
       </c>
       <c r="F595" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -19703,7 +19765,7 @@
         <v>43252</v>
       </c>
       <c r="F596" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -19724,7 +19786,7 @@
         <v>43221</v>
       </c>
       <c r="F597" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -19745,7 +19807,7 @@
         <v>43221</v>
       </c>
       <c r="F598" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -19766,7 +19828,7 @@
         <v>43221</v>
       </c>
       <c r="F599" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -19787,7 +19849,7 @@
         <v>43221</v>
       </c>
       <c r="F600" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -19808,7 +19870,7 @@
         <v>43221</v>
       </c>
       <c r="F601" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -19829,7 +19891,7 @@
         <v>43221</v>
       </c>
       <c r="F602" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -19850,7 +19912,7 @@
         <v>43221</v>
       </c>
       <c r="F603" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -19871,7 +19933,7 @@
         <v>43221</v>
       </c>
       <c r="F604" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -19892,7 +19954,7 @@
         <v>43221</v>
       </c>
       <c r="F605" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -19913,7 +19975,7 @@
         <v>43221</v>
       </c>
       <c r="F606" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -19934,7 +19996,7 @@
         <v>43221</v>
       </c>
       <c r="F607" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -19955,7 +20017,7 @@
         <v>43221</v>
       </c>
       <c r="F608" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -19976,7 +20038,7 @@
         <v>43221</v>
       </c>
       <c r="F609" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -19997,7 +20059,7 @@
         <v>43221</v>
       </c>
       <c r="F610" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20018,7 +20080,7 @@
         <v>43221</v>
       </c>
       <c r="F611" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20039,7 +20101,7 @@
         <v>43191</v>
       </c>
       <c r="F612" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20060,7 +20122,7 @@
         <v>43191</v>
       </c>
       <c r="F613" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20081,7 +20143,7 @@
         <v>43191</v>
       </c>
       <c r="F614" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20102,7 +20164,7 @@
         <v>43191</v>
       </c>
       <c r="F615" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20123,7 +20185,7 @@
         <v>43191</v>
       </c>
       <c r="F616" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20144,7 +20206,7 @@
         <v>43191</v>
       </c>
       <c r="F617" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20165,7 +20227,7 @@
         <v>43191</v>
       </c>
       <c r="F618" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20186,7 +20248,7 @@
         <v>43191</v>
       </c>
       <c r="F619" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20207,7 +20269,7 @@
         <v>43191</v>
       </c>
       <c r="F620" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20228,7 +20290,7 @@
         <v>43191</v>
       </c>
       <c r="F621" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20249,7 +20311,7 @@
         <v>43191</v>
       </c>
       <c r="F622" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20270,7 +20332,7 @@
         <v>43160</v>
       </c>
       <c r="F623" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20291,7 +20353,7 @@
         <v>43160</v>
       </c>
       <c r="F624" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20312,7 +20374,7 @@
         <v>43160</v>
       </c>
       <c r="F625" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20333,7 +20395,7 @@
         <v>43160</v>
       </c>
       <c r="F626" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20354,7 +20416,7 @@
         <v>43160</v>
       </c>
       <c r="F627" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20375,7 +20437,7 @@
         <v>43160</v>
       </c>
       <c r="F628" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20396,7 +20458,7 @@
         <v>43160</v>
       </c>
       <c r="F629" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20417,7 +20479,7 @@
         <v>43160</v>
       </c>
       <c r="F630" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20438,7 +20500,7 @@
         <v>43160</v>
       </c>
       <c r="F631" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20459,7 +20521,7 @@
         <v>43160</v>
       </c>
       <c r="F632" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20480,7 +20542,7 @@
         <v>43160</v>
       </c>
       <c r="F633" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20501,7 +20563,7 @@
         <v>43160</v>
       </c>
       <c r="F634" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20522,7 +20584,7 @@
         <v>43160</v>
       </c>
       <c r="F635" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20543,7 +20605,7 @@
         <v>43132</v>
       </c>
       <c r="F636" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20564,7 +20626,7 @@
         <v>43132</v>
       </c>
       <c r="F637" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20585,7 +20647,7 @@
         <v>43132</v>
       </c>
       <c r="F638" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20606,7 +20668,7 @@
         <v>43132</v>
       </c>
       <c r="F639" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20627,7 +20689,7 @@
         <v>43132</v>
       </c>
       <c r="F640" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20648,7 +20710,7 @@
         <v>43132</v>
       </c>
       <c r="F641" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20669,7 +20731,7 @@
         <v>43132</v>
       </c>
       <c r="F642" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
@@ -20690,7 +20752,7 @@
         <v>43132</v>
       </c>
       <c r="F643" s="3">
-        <f t="shared" ref="F643:F706" si="12">YEAR(E643)</f>
+        <f t="shared" ref="F643:F706" si="14">YEAR(E643)</f>
         <v>2018</v>
       </c>
     </row>
@@ -20711,7 +20773,7 @@
         <v>43132</v>
       </c>
       <c r="F644" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2018</v>
       </c>
     </row>
@@ -20732,7 +20794,7 @@
         <v>43132</v>
       </c>
       <c r="F645" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2018</v>
       </c>
     </row>
@@ -20753,7 +20815,7 @@
         <v>43132</v>
       </c>
       <c r="F646" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2018</v>
       </c>
     </row>
@@ -20774,7 +20836,7 @@
         <v>43132</v>
       </c>
       <c r="F647" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2018</v>
       </c>
     </row>
@@ -20795,7 +20857,7 @@
         <v>43132</v>
       </c>
       <c r="F648" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2018</v>
       </c>
     </row>
@@ -20816,7 +20878,7 @@
         <v>43132</v>
       </c>
       <c r="F649" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2018</v>
       </c>
     </row>
@@ -20837,7 +20899,7 @@
         <v>43132</v>
       </c>
       <c r="F650" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2018</v>
       </c>
     </row>
@@ -20858,7 +20920,7 @@
         <v>43132</v>
       </c>
       <c r="F651" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2018</v>
       </c>
     </row>
@@ -20879,7 +20941,7 @@
         <v>43132</v>
       </c>
       <c r="F652" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2018</v>
       </c>
     </row>
@@ -20900,7 +20962,7 @@
         <v>43132</v>
       </c>
       <c r="F653" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2018</v>
       </c>
     </row>
@@ -20921,7 +20983,7 @@
         <v>43132</v>
       </c>
       <c r="F654" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2018</v>
       </c>
     </row>
@@ -20942,7 +21004,7 @@
         <v>43132</v>
       </c>
       <c r="F655" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2018</v>
       </c>
     </row>
@@ -20963,7 +21025,7 @@
         <v>43101</v>
       </c>
       <c r="F656" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2018</v>
       </c>
     </row>
@@ -20984,7 +21046,7 @@
         <v>43101</v>
       </c>
       <c r="F657" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2018</v>
       </c>
     </row>
@@ -21005,7 +21067,7 @@
         <v>43101</v>
       </c>
       <c r="F658" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2018</v>
       </c>
     </row>
@@ -21026,7 +21088,7 @@
         <v>43101</v>
       </c>
       <c r="F659" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2018</v>
       </c>
     </row>
@@ -21047,7 +21109,7 @@
         <v>43101</v>
       </c>
       <c r="F660" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2018</v>
       </c>
     </row>
@@ -21068,7 +21130,7 @@
         <v>43101</v>
       </c>
       <c r="F661" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2018</v>
       </c>
     </row>
@@ -21089,7 +21151,7 @@
         <v>43101</v>
       </c>
       <c r="F662" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2018</v>
       </c>
     </row>
@@ -21110,7 +21172,7 @@
         <v>43101</v>
       </c>
       <c r="F663" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2018</v>
       </c>
     </row>
@@ -21131,7 +21193,7 @@
         <v>43101</v>
       </c>
       <c r="F664" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2018</v>
       </c>
     </row>
@@ -21152,7 +21214,7 @@
         <v>43101</v>
       </c>
       <c r="F665" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2018</v>
       </c>
     </row>
@@ -21173,7 +21235,7 @@
         <v>43101</v>
       </c>
       <c r="F666" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2018</v>
       </c>
     </row>
@@ -21194,7 +21256,7 @@
         <v>43101</v>
       </c>
       <c r="F667" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2018</v>
       </c>
     </row>
@@ -21215,7 +21277,7 @@
         <v>43101</v>
       </c>
       <c r="F668" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2018</v>
       </c>
     </row>
@@ -21236,7 +21298,7 @@
         <v>43101</v>
       </c>
       <c r="F669" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2018</v>
       </c>
     </row>
@@ -21257,7 +21319,7 @@
         <v>43101</v>
       </c>
       <c r="F670" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2018</v>
       </c>
     </row>
@@ -21278,7 +21340,7 @@
         <v>43070</v>
       </c>
       <c r="F671" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21299,7 +21361,7 @@
         <v>43070</v>
       </c>
       <c r="F672" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21320,7 +21382,7 @@
         <v>43070</v>
       </c>
       <c r="F673" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21341,7 +21403,7 @@
         <v>43070</v>
       </c>
       <c r="F674" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21362,7 +21424,7 @@
         <v>43070</v>
       </c>
       <c r="F675" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21383,7 +21445,7 @@
         <v>43070</v>
       </c>
       <c r="F676" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21404,7 +21466,7 @@
         <v>43070</v>
       </c>
       <c r="F677" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21425,7 +21487,7 @@
         <v>43070</v>
       </c>
       <c r="F678" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21446,7 +21508,7 @@
         <v>43070</v>
       </c>
       <c r="F679" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21467,7 +21529,7 @@
         <v>43070</v>
       </c>
       <c r="F680" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21488,7 +21550,7 @@
         <v>43070</v>
       </c>
       <c r="F681" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21509,7 +21571,7 @@
         <v>43070</v>
       </c>
       <c r="F682" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21530,7 +21592,7 @@
         <v>43070</v>
       </c>
       <c r="F683" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21551,7 +21613,7 @@
         <v>43070</v>
       </c>
       <c r="F684" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21572,7 +21634,7 @@
         <v>43070</v>
       </c>
       <c r="F685" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21593,7 +21655,7 @@
         <v>43070</v>
       </c>
       <c r="F686" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21614,7 +21676,7 @@
         <v>43070</v>
       </c>
       <c r="F687" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21635,7 +21697,7 @@
         <v>43070</v>
       </c>
       <c r="F688" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21656,7 +21718,7 @@
         <v>43070</v>
       </c>
       <c r="F689" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21677,7 +21739,7 @@
         <v>43070</v>
       </c>
       <c r="F690" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21698,7 +21760,7 @@
         <v>43070</v>
       </c>
       <c r="F691" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21719,7 +21781,7 @@
         <v>43070</v>
       </c>
       <c r="F692" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21740,7 +21802,7 @@
         <v>43070</v>
       </c>
       <c r="F693" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21761,7 +21823,7 @@
         <v>43070</v>
       </c>
       <c r="F694" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21782,7 +21844,7 @@
         <v>43070</v>
       </c>
       <c r="F695" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21803,7 +21865,7 @@
         <v>43070</v>
       </c>
       <c r="F696" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21824,7 +21886,7 @@
         <v>43070</v>
       </c>
       <c r="F697" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21845,7 +21907,7 @@
         <v>43070</v>
       </c>
       <c r="F698" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21866,7 +21928,7 @@
         <v>43070</v>
       </c>
       <c r="F699" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21887,7 +21949,7 @@
         <v>43070</v>
       </c>
       <c r="F700" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21908,7 +21970,7 @@
         <v>43040</v>
       </c>
       <c r="F701" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21929,7 +21991,7 @@
         <v>43040</v>
       </c>
       <c r="F702" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21950,7 +22012,7 @@
         <v>43040</v>
       </c>
       <c r="F703" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21971,7 +22033,7 @@
         <v>43040</v>
       </c>
       <c r="F704" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -21992,7 +22054,7 @@
         <v>43040</v>
       </c>
       <c r="F705" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -22013,7 +22075,7 @@
         <v>43040</v>
       </c>
       <c r="F706" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
@@ -22034,7 +22096,7 @@
         <v>43040</v>
       </c>
       <c r="F707" s="3">
-        <f t="shared" ref="F707:F770" si="13">YEAR(E707)</f>
+        <f t="shared" ref="F707:F770" si="15">YEAR(E707)</f>
         <v>2017</v>
       </c>
     </row>
@@ -22055,7 +22117,7 @@
         <v>43040</v>
       </c>
       <c r="F708" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22076,7 +22138,7 @@
         <v>43040</v>
       </c>
       <c r="F709" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22097,7 +22159,7 @@
         <v>43040</v>
       </c>
       <c r="F710" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22118,7 +22180,7 @@
         <v>43040</v>
       </c>
       <c r="F711" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22139,7 +22201,7 @@
         <v>43040</v>
       </c>
       <c r="F712" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22160,7 +22222,7 @@
         <v>43040</v>
       </c>
       <c r="F713" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22181,7 +22243,7 @@
         <v>43040</v>
       </c>
       <c r="F714" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22202,7 +22264,7 @@
         <v>43009</v>
       </c>
       <c r="F715" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22223,7 +22285,7 @@
         <v>43009</v>
       </c>
       <c r="F716" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22244,7 +22306,7 @@
         <v>43009</v>
       </c>
       <c r="F717" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22265,7 +22327,7 @@
         <v>43009</v>
       </c>
       <c r="F718" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22286,7 +22348,7 @@
         <v>43009</v>
       </c>
       <c r="F719" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22307,7 +22369,7 @@
         <v>43009</v>
       </c>
       <c r="F720" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22328,7 +22390,7 @@
         <v>43009</v>
       </c>
       <c r="F721" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22349,7 +22411,7 @@
         <v>43009</v>
       </c>
       <c r="F722" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22370,7 +22432,7 @@
         <v>43009</v>
       </c>
       <c r="F723" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22391,7 +22453,7 @@
         <v>43009</v>
       </c>
       <c r="F724" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22412,7 +22474,7 @@
         <v>43009</v>
       </c>
       <c r="F725" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22433,7 +22495,7 @@
         <v>43009</v>
       </c>
       <c r="F726" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22454,7 +22516,7 @@
         <v>43009</v>
       </c>
       <c r="F727" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22475,7 +22537,7 @@
         <v>43009</v>
       </c>
       <c r="F728" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22496,7 +22558,7 @@
         <v>43009</v>
       </c>
       <c r="F729" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22517,7 +22579,7 @@
         <v>43009</v>
       </c>
       <c r="F730" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22538,7 +22600,7 @@
         <v>42979</v>
       </c>
       <c r="F731" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22559,7 +22621,7 @@
         <v>42979</v>
       </c>
       <c r="F732" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22580,7 +22642,7 @@
         <v>42979</v>
       </c>
       <c r="F733" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22601,7 +22663,7 @@
         <v>42979</v>
       </c>
       <c r="F734" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22622,7 +22684,7 @@
         <v>42979</v>
       </c>
       <c r="F735" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22643,7 +22705,7 @@
         <v>42979</v>
       </c>
       <c r="F736" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22664,7 +22726,7 @@
         <v>42979</v>
       </c>
       <c r="F737" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22685,7 +22747,7 @@
         <v>42979</v>
       </c>
       <c r="F738" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22706,7 +22768,7 @@
         <v>42979</v>
       </c>
       <c r="F739" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22727,7 +22789,7 @@
         <v>42979</v>
       </c>
       <c r="F740" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22748,7 +22810,7 @@
         <v>42979</v>
       </c>
       <c r="F741" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22769,7 +22831,7 @@
         <v>42979</v>
       </c>
       <c r="F742" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22790,7 +22852,7 @@
         <v>42948</v>
       </c>
       <c r="F743" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22811,7 +22873,7 @@
         <v>42948</v>
       </c>
       <c r="F744" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22832,7 +22894,7 @@
         <v>42948</v>
       </c>
       <c r="F745" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22853,7 +22915,7 @@
         <v>42917</v>
       </c>
       <c r="F746" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22874,7 +22936,7 @@
         <v>42917</v>
       </c>
       <c r="F747" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22895,7 +22957,7 @@
         <v>42917</v>
       </c>
       <c r="F748" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22916,7 +22978,7 @@
         <v>42917</v>
       </c>
       <c r="F749" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22937,7 +22999,7 @@
         <v>42917</v>
       </c>
       <c r="F750" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22958,7 +23020,7 @@
         <v>42917</v>
       </c>
       <c r="F751" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -22979,7 +23041,7 @@
         <v>42917</v>
       </c>
       <c r="F752" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -23000,7 +23062,7 @@
         <v>42917</v>
       </c>
       <c r="F753" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -23021,7 +23083,7 @@
         <v>42917</v>
       </c>
       <c r="F754" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -23042,7 +23104,7 @@
         <v>42917</v>
       </c>
       <c r="F755" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -23063,7 +23125,7 @@
         <v>42917</v>
       </c>
       <c r="F756" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -23084,7 +23146,7 @@
         <v>42887</v>
       </c>
       <c r="F757" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -23105,7 +23167,7 @@
         <v>42887</v>
       </c>
       <c r="F758" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -23126,7 +23188,7 @@
         <v>42887</v>
       </c>
       <c r="F759" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -23147,7 +23209,7 @@
         <v>42887</v>
       </c>
       <c r="F760" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -23168,7 +23230,7 @@
         <v>42887</v>
       </c>
       <c r="F761" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -23189,7 +23251,7 @@
         <v>42887</v>
       </c>
       <c r="F762" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -23210,7 +23272,7 @@
         <v>42887</v>
       </c>
       <c r="F763" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -23231,7 +23293,7 @@
         <v>42887</v>
       </c>
       <c r="F764" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -23252,7 +23314,7 @@
         <v>42887</v>
       </c>
       <c r="F765" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -23273,7 +23335,7 @@
         <v>42856</v>
       </c>
       <c r="F766" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -23294,7 +23356,7 @@
         <v>42856</v>
       </c>
       <c r="F767" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -23315,7 +23377,7 @@
         <v>42856</v>
       </c>
       <c r="F768" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -23336,7 +23398,7 @@
         <v>42856</v>
       </c>
       <c r="F769" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -23357,7 +23419,7 @@
         <v>42856</v>
       </c>
       <c r="F770" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2017</v>
       </c>
     </row>
@@ -23378,7 +23440,7 @@
         <v>42856</v>
       </c>
       <c r="F771" s="3">
-        <f t="shared" ref="F771:F834" si="14">YEAR(E771)</f>
+        <f t="shared" ref="F771:F834" si="16">YEAR(E771)</f>
         <v>2017</v>
       </c>
     </row>
@@ -23399,7 +23461,7 @@
         <v>42856</v>
       </c>
       <c r="F772" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -23420,7 +23482,7 @@
         <v>42856</v>
       </c>
       <c r="F773" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -23441,7 +23503,7 @@
         <v>42856</v>
       </c>
       <c r="F774" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -23462,7 +23524,7 @@
         <v>42856</v>
       </c>
       <c r="F775" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -23483,7 +23545,7 @@
         <v>42856</v>
       </c>
       <c r="F776" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -23504,7 +23566,7 @@
         <v>42856</v>
       </c>
       <c r="F777" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -23525,7 +23587,7 @@
         <v>42856</v>
       </c>
       <c r="F778" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -23546,7 +23608,7 @@
         <v>42856</v>
       </c>
       <c r="F779" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -23567,7 +23629,7 @@
         <v>42856</v>
       </c>
       <c r="F780" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -23588,7 +23650,7 @@
         <v>42856</v>
       </c>
       <c r="F781" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -23609,7 +23671,7 @@
         <v>42856</v>
       </c>
       <c r="F782" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -23630,7 +23692,7 @@
         <v>42826</v>
       </c>
       <c r="F783" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -23651,7 +23713,7 @@
         <v>42826</v>
       </c>
       <c r="F784" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -23672,7 +23734,7 @@
         <v>42826</v>
       </c>
       <c r="F785" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -23693,7 +23755,7 @@
         <v>42826</v>
       </c>
       <c r="F786" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -23714,7 +23776,7 @@
         <v>42826</v>
       </c>
       <c r="F787" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -23735,7 +23797,7 @@
         <v>42826</v>
       </c>
       <c r="F788" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -23756,7 +23818,7 @@
         <v>42826</v>
       </c>
       <c r="F789" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -23777,7 +23839,7 @@
         <v>42826</v>
       </c>
       <c r="F790" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -23798,7 +23860,7 @@
         <v>42826</v>
       </c>
       <c r="F791" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -23819,7 +23881,7 @@
         <v>42826</v>
       </c>
       <c r="F792" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -23840,7 +23902,7 @@
         <v>42826</v>
       </c>
       <c r="F793" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -23861,7 +23923,7 @@
         <v>42826</v>
       </c>
       <c r="F794" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -23882,7 +23944,7 @@
         <v>42826</v>
       </c>
       <c r="F795" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -23903,7 +23965,7 @@
         <v>42826</v>
       </c>
       <c r="F796" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -23924,7 +23986,7 @@
         <v>42826</v>
       </c>
       <c r="F797" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -23945,7 +24007,7 @@
         <v>42795</v>
       </c>
       <c r="F798" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -23966,7 +24028,7 @@
         <v>42795</v>
       </c>
       <c r="F799" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -23987,7 +24049,7 @@
         <v>42795</v>
       </c>
       <c r="F800" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24008,7 +24070,7 @@
         <v>42795</v>
       </c>
       <c r="F801" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24029,7 +24091,7 @@
         <v>42795</v>
       </c>
       <c r="F802" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24050,7 +24112,7 @@
         <v>42795</v>
       </c>
       <c r="F803" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24071,7 +24133,7 @@
         <v>42795</v>
       </c>
       <c r="F804" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24092,7 +24154,7 @@
         <v>42795</v>
       </c>
       <c r="F805" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24113,7 +24175,7 @@
         <v>42795</v>
       </c>
       <c r="F806" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24134,7 +24196,7 @@
         <v>42795</v>
       </c>
       <c r="F807" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24155,7 +24217,7 @@
         <v>42795</v>
       </c>
       <c r="F808" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24176,7 +24238,7 @@
         <v>42795</v>
       </c>
       <c r="F809" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24197,7 +24259,7 @@
         <v>42795</v>
       </c>
       <c r="F810" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24218,7 +24280,7 @@
         <v>42795</v>
       </c>
       <c r="F811" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24239,7 +24301,7 @@
         <v>42795</v>
       </c>
       <c r="F812" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24260,7 +24322,7 @@
         <v>42795</v>
       </c>
       <c r="F813" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24281,7 +24343,7 @@
         <v>42795</v>
       </c>
       <c r="F814" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24302,7 +24364,7 @@
         <v>42795</v>
       </c>
       <c r="F815" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24323,7 +24385,7 @@
         <v>42795</v>
       </c>
       <c r="F816" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24344,7 +24406,7 @@
         <v>42795</v>
       </c>
       <c r="F817" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24365,7 +24427,7 @@
         <v>42795</v>
       </c>
       <c r="F818" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24386,7 +24448,7 @@
         <v>42795</v>
       </c>
       <c r="F819" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24407,7 +24469,7 @@
         <v>42795</v>
       </c>
       <c r="F820" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24428,7 +24490,7 @@
         <v>42795</v>
       </c>
       <c r="F821" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24449,7 +24511,7 @@
         <v>42795</v>
       </c>
       <c r="F822" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24470,7 +24532,7 @@
         <v>42795</v>
       </c>
       <c r="F823" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24491,7 +24553,7 @@
         <v>42795</v>
       </c>
       <c r="F824" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24512,7 +24574,7 @@
         <v>42795</v>
       </c>
       <c r="F825" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24533,7 +24595,7 @@
         <v>42767</v>
       </c>
       <c r="F826" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24554,7 +24616,7 @@
         <v>42767</v>
       </c>
       <c r="F827" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24575,7 +24637,7 @@
         <v>42767</v>
       </c>
       <c r="F828" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24596,7 +24658,7 @@
         <v>42767</v>
       </c>
       <c r="F829" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24617,7 +24679,7 @@
         <v>42767</v>
       </c>
       <c r="F830" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24638,7 +24700,7 @@
         <v>42767</v>
       </c>
       <c r="F831" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24659,7 +24721,7 @@
         <v>42767</v>
       </c>
       <c r="F832" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24680,7 +24742,7 @@
         <v>42767</v>
       </c>
       <c r="F833" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24701,7 +24763,7 @@
         <v>42767</v>
       </c>
       <c r="F834" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
     </row>
@@ -24722,7 +24784,7 @@
         <v>42767</v>
       </c>
       <c r="F835" s="3">
-        <f t="shared" ref="F835:F898" si="15">YEAR(E835)</f>
+        <f t="shared" ref="F835:F898" si="17">YEAR(E835)</f>
         <v>2017</v>
       </c>
     </row>
@@ -24743,7 +24805,7 @@
         <v>42767</v>
       </c>
       <c r="F836" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2017</v>
       </c>
     </row>
@@ -24764,7 +24826,7 @@
         <v>42767</v>
       </c>
       <c r="F837" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2017</v>
       </c>
     </row>
@@ -24785,7 +24847,7 @@
         <v>42767</v>
       </c>
       <c r="F838" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2017</v>
       </c>
     </row>
@@ -24806,7 +24868,7 @@
         <v>42767</v>
       </c>
       <c r="F839" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2017</v>
       </c>
     </row>
@@ -24827,7 +24889,7 @@
         <v>42767</v>
       </c>
       <c r="F840" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2017</v>
       </c>
     </row>
@@ -24848,7 +24910,7 @@
         <v>42767</v>
       </c>
       <c r="F841" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2017</v>
       </c>
     </row>
@@ -24869,7 +24931,7 @@
         <v>42767</v>
       </c>
       <c r="F842" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2017</v>
       </c>
     </row>
@@ -24890,7 +24952,7 @@
         <v>42767</v>
       </c>
       <c r="F843" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2017</v>
       </c>
     </row>
@@ -24911,7 +24973,7 @@
         <v>42736</v>
       </c>
       <c r="F844" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2017</v>
       </c>
     </row>
@@ -24932,7 +24994,7 @@
         <v>42736</v>
       </c>
       <c r="F845" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2017</v>
       </c>
     </row>
@@ -24953,7 +25015,7 @@
         <v>42736</v>
       </c>
       <c r="F846" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2017</v>
       </c>
     </row>
@@ -24974,7 +25036,7 @@
         <v>42736</v>
       </c>
       <c r="F847" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2017</v>
       </c>
     </row>
@@ -24995,7 +25057,7 @@
         <v>42736</v>
       </c>
       <c r="F848" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2017</v>
       </c>
     </row>
@@ -25016,7 +25078,7 @@
         <v>42736</v>
       </c>
       <c r="F849" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2017</v>
       </c>
     </row>
@@ -25037,7 +25099,7 @@
         <v>42736</v>
       </c>
       <c r="F850" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2017</v>
       </c>
     </row>
@@ -25058,7 +25120,7 @@
         <v>42736</v>
       </c>
       <c r="F851" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2017</v>
       </c>
     </row>
@@ -25079,7 +25141,7 @@
         <v>42736</v>
       </c>
       <c r="F852" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2017</v>
       </c>
     </row>
@@ -25100,7 +25162,7 @@
         <v>42736</v>
       </c>
       <c r="F853" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2017</v>
       </c>
     </row>
@@ -25121,7 +25183,7 @@
         <v>42736</v>
       </c>
       <c r="F854" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2017</v>
       </c>
     </row>
@@ -25142,7 +25204,7 @@
         <v>42736</v>
       </c>
       <c r="F855" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2017</v>
       </c>
     </row>
@@ -25163,7 +25225,7 @@
         <v>42736</v>
       </c>
       <c r="F856" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2017</v>
       </c>
     </row>
@@ -25184,7 +25246,7 @@
         <v>42736</v>
       </c>
       <c r="F857" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2017</v>
       </c>
     </row>
@@ -25205,7 +25267,7 @@
         <v>42736</v>
       </c>
       <c r="F858" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2017</v>
       </c>
     </row>
@@ -25226,7 +25288,7 @@
         <v>42736</v>
       </c>
       <c r="F859" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2017</v>
       </c>
     </row>
@@ -25247,7 +25309,7 @@
         <v>42736</v>
       </c>
       <c r="F860" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2017</v>
       </c>
     </row>
@@ -25268,7 +25330,7 @@
         <v>42736</v>
       </c>
       <c r="F861" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2017</v>
       </c>
     </row>
@@ -25289,7 +25351,7 @@
         <v>42705</v>
       </c>
       <c r="F862" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25310,7 +25372,7 @@
         <v>42705</v>
       </c>
       <c r="F863" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25331,7 +25393,7 @@
         <v>42705</v>
       </c>
       <c r="F864" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25352,7 +25414,7 @@
         <v>42705</v>
       </c>
       <c r="F865" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25373,7 +25435,7 @@
         <v>42705</v>
       </c>
       <c r="F866" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25394,7 +25456,7 @@
         <v>42705</v>
       </c>
       <c r="F867" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25415,7 +25477,7 @@
         <v>42705</v>
       </c>
       <c r="F868" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25436,7 +25498,7 @@
         <v>42705</v>
       </c>
       <c r="F869" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25457,7 +25519,7 @@
         <v>42705</v>
       </c>
       <c r="F870" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25478,7 +25540,7 @@
         <v>42705</v>
       </c>
       <c r="F871" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25499,7 +25561,7 @@
         <v>42705</v>
       </c>
       <c r="F872" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25520,7 +25582,7 @@
         <v>42705</v>
       </c>
       <c r="F873" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25541,7 +25603,7 @@
         <v>42705</v>
       </c>
       <c r="F874" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25562,7 +25624,7 @@
         <v>42705</v>
       </c>
       <c r="F875" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25583,7 +25645,7 @@
         <v>42705</v>
       </c>
       <c r="F876" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25604,7 +25666,7 @@
         <v>42705</v>
       </c>
       <c r="F877" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25625,7 +25687,7 @@
         <v>42705</v>
       </c>
       <c r="F878" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25646,7 +25708,7 @@
         <v>42705</v>
       </c>
       <c r="F879" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25667,7 +25729,7 @@
         <v>42705</v>
       </c>
       <c r="F880" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25688,7 +25750,7 @@
         <v>42705</v>
       </c>
       <c r="F881" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25709,7 +25771,7 @@
         <v>42705</v>
       </c>
       <c r="F882" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25730,7 +25792,7 @@
         <v>42705</v>
       </c>
       <c r="F883" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25751,7 +25813,7 @@
         <v>42705</v>
       </c>
       <c r="F884" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25772,7 +25834,7 @@
         <v>42705</v>
       </c>
       <c r="F885" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25793,7 +25855,7 @@
         <v>42705</v>
       </c>
       <c r="F886" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25814,7 +25876,7 @@
         <v>42705</v>
       </c>
       <c r="F887" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25835,7 +25897,7 @@
         <v>42705</v>
       </c>
       <c r="F888" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25853,7 +25915,7 @@
         <v>42675</v>
       </c>
       <c r="F889" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25874,7 +25936,7 @@
         <v>42675</v>
       </c>
       <c r="F890" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25895,7 +25957,7 @@
         <v>42675</v>
       </c>
       <c r="F891" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25916,7 +25978,7 @@
         <v>42675</v>
       </c>
       <c r="F892" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25937,7 +25999,7 @@
         <v>42675</v>
       </c>
       <c r="F893" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25958,7 +26020,7 @@
         <v>42675</v>
       </c>
       <c r="F894" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -25979,7 +26041,7 @@
         <v>42675</v>
       </c>
       <c r="F895" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -26000,7 +26062,7 @@
         <v>42675</v>
       </c>
       <c r="F896" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -26021,7 +26083,7 @@
         <v>42675</v>
       </c>
       <c r="F897" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -26042,7 +26104,7 @@
         <v>42675</v>
       </c>
       <c r="F898" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
     </row>
@@ -26063,7 +26125,7 @@
         <v>42675</v>
       </c>
       <c r="F899" s="3">
-        <f t="shared" ref="F899:F962" si="16">YEAR(E899)</f>
+        <f t="shared" ref="F899:F962" si="18">YEAR(E899)</f>
         <v>2016</v>
       </c>
     </row>
@@ -26084,7 +26146,7 @@
         <v>42675</v>
       </c>
       <c r="F900" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26105,7 +26167,7 @@
         <v>42644</v>
       </c>
       <c r="F901" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26126,7 +26188,7 @@
         <v>42644</v>
       </c>
       <c r="F902" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26147,7 +26209,7 @@
         <v>42644</v>
       </c>
       <c r="F903" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26168,7 +26230,7 @@
         <v>42644</v>
       </c>
       <c r="F904" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26189,7 +26251,7 @@
         <v>42644</v>
       </c>
       <c r="F905" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26210,7 +26272,7 @@
         <v>42644</v>
       </c>
       <c r="F906" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26231,7 +26293,7 @@
         <v>42644</v>
       </c>
       <c r="F907" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26252,7 +26314,7 @@
         <v>42644</v>
       </c>
       <c r="F908" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26273,7 +26335,7 @@
         <v>42644</v>
       </c>
       <c r="F909" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26294,7 +26356,7 @@
         <v>42644</v>
       </c>
       <c r="F910" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26315,7 +26377,7 @@
         <v>42644</v>
       </c>
       <c r="F911" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26336,7 +26398,7 @@
         <v>42644</v>
       </c>
       <c r="F912" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26357,7 +26419,7 @@
         <v>42644</v>
       </c>
       <c r="F913" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26378,7 +26440,7 @@
         <v>42644</v>
       </c>
       <c r="F914" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26399,7 +26461,7 @@
         <v>42644</v>
       </c>
       <c r="F915" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26420,7 +26482,7 @@
         <v>42644</v>
       </c>
       <c r="F916" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26441,7 +26503,7 @@
         <v>42614</v>
       </c>
       <c r="F917" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26462,7 +26524,7 @@
         <v>42614</v>
       </c>
       <c r="F918" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26483,7 +26545,7 @@
         <v>42614</v>
       </c>
       <c r="F919" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26504,7 +26566,7 @@
         <v>42614</v>
       </c>
       <c r="F920" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26525,7 +26587,7 @@
         <v>42614</v>
       </c>
       <c r="F921" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26546,7 +26608,7 @@
         <v>42614</v>
       </c>
       <c r="F922" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26567,7 +26629,7 @@
         <v>42614</v>
       </c>
       <c r="F923" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26588,7 +26650,7 @@
         <v>42614</v>
       </c>
       <c r="F924" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26609,7 +26671,7 @@
         <v>42614</v>
       </c>
       <c r="F925" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26630,7 +26692,7 @@
         <v>42614</v>
       </c>
       <c r="F926" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26651,7 +26713,7 @@
         <v>42614</v>
       </c>
       <c r="F927" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26672,7 +26734,7 @@
         <v>42614</v>
       </c>
       <c r="F928" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26693,7 +26755,7 @@
         <v>42583</v>
       </c>
       <c r="F929" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26714,7 +26776,7 @@
         <v>42583</v>
       </c>
       <c r="F930" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26735,7 +26797,7 @@
         <v>42583</v>
       </c>
       <c r="F931" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26756,7 +26818,7 @@
         <v>42583</v>
       </c>
       <c r="F932" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26777,7 +26839,7 @@
         <v>42583</v>
       </c>
       <c r="F933" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26798,7 +26860,7 @@
         <v>42583</v>
       </c>
       <c r="F934" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26819,7 +26881,7 @@
         <v>42583</v>
       </c>
       <c r="F935" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26840,7 +26902,7 @@
         <v>42583</v>
       </c>
       <c r="F936" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26861,7 +26923,7 @@
         <v>42583</v>
       </c>
       <c r="F937" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26882,7 +26944,7 @@
         <v>42583</v>
       </c>
       <c r="F938" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26903,7 +26965,7 @@
         <v>42583</v>
       </c>
       <c r="F939" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26924,7 +26986,7 @@
         <v>42583</v>
       </c>
       <c r="F940" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26945,7 +27007,7 @@
         <v>42583</v>
       </c>
       <c r="F941" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26966,7 +27028,7 @@
         <v>42583</v>
       </c>
       <c r="F942" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -26987,7 +27049,7 @@
         <v>42583</v>
       </c>
       <c r="F943" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -27008,7 +27070,7 @@
         <v>42583</v>
       </c>
       <c r="F944" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -27029,7 +27091,7 @@
         <v>42583</v>
       </c>
       <c r="F945" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -27050,7 +27112,7 @@
         <v>42552</v>
       </c>
       <c r="F946" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -27071,7 +27133,7 @@
         <v>42552</v>
       </c>
       <c r="F947" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -27092,7 +27154,7 @@
         <v>42552</v>
       </c>
       <c r="F948" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -27113,7 +27175,7 @@
         <v>42552</v>
       </c>
       <c r="F949" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -27134,7 +27196,7 @@
         <v>42552</v>
       </c>
       <c r="F950" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -27155,7 +27217,7 @@
         <v>42552</v>
       </c>
       <c r="F951" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -27176,7 +27238,7 @@
         <v>42552</v>
       </c>
       <c r="F952" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -27197,7 +27259,7 @@
         <v>42552</v>
       </c>
       <c r="F953" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -27218,7 +27280,7 @@
         <v>42552</v>
       </c>
       <c r="F954" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -27239,7 +27301,7 @@
         <v>42552</v>
       </c>
       <c r="F955" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -27260,7 +27322,7 @@
         <v>42552</v>
       </c>
       <c r="F956" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -27281,7 +27343,7 @@
         <v>42552</v>
       </c>
       <c r="F957" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -27302,7 +27364,7 @@
         <v>42552</v>
       </c>
       <c r="F958" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -27323,7 +27385,7 @@
         <v>42522</v>
       </c>
       <c r="F959" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -27344,7 +27406,7 @@
         <v>42522</v>
       </c>
       <c r="F960" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -27365,7 +27427,7 @@
         <v>42522</v>
       </c>
       <c r="F961" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -27386,7 +27448,7 @@
         <v>42522</v>
       </c>
       <c r="F962" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2016</v>
       </c>
     </row>
@@ -27407,7 +27469,7 @@
         <v>42522</v>
       </c>
       <c r="F963" s="3">
-        <f t="shared" ref="F963:F1026" si="17">YEAR(E963)</f>
+        <f t="shared" ref="F963:F1026" si="19">YEAR(E963)</f>
         <v>2016</v>
       </c>
     </row>
@@ -27428,7 +27490,7 @@
         <v>42522</v>
       </c>
       <c r="F964" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -27449,7 +27511,7 @@
         <v>42522</v>
       </c>
       <c r="F965" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -27470,7 +27532,7 @@
         <v>42522</v>
       </c>
       <c r="F966" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -27491,7 +27553,7 @@
         <v>42522</v>
       </c>
       <c r="F967" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -27512,7 +27574,7 @@
         <v>42491</v>
       </c>
       <c r="F968" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -27533,7 +27595,7 @@
         <v>42491</v>
       </c>
       <c r="F969" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -27554,7 +27616,7 @@
         <v>42491</v>
       </c>
       <c r="F970" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -27575,7 +27637,7 @@
         <v>42491</v>
       </c>
       <c r="F971" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -27596,7 +27658,7 @@
         <v>42491</v>
       </c>
       <c r="F972" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -27617,7 +27679,7 @@
         <v>42491</v>
       </c>
       <c r="F973" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -27638,7 +27700,7 @@
         <v>42491</v>
       </c>
       <c r="F974" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -27659,7 +27721,7 @@
         <v>42491</v>
       </c>
       <c r="F975" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -27680,7 +27742,7 @@
         <v>42491</v>
       </c>
       <c r="F976" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -27701,7 +27763,7 @@
         <v>42461</v>
       </c>
       <c r="F977" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -27722,7 +27784,7 @@
         <v>42461</v>
       </c>
       <c r="F978" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -27743,7 +27805,7 @@
         <v>42461</v>
       </c>
       <c r="F979" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -27764,7 +27826,7 @@
         <v>42461</v>
       </c>
       <c r="F980" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -27785,7 +27847,7 @@
         <v>42461</v>
       </c>
       <c r="F981" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -27806,7 +27868,7 @@
         <v>42461</v>
       </c>
       <c r="F982" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -27827,7 +27889,7 @@
         <v>42461</v>
       </c>
       <c r="F983" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -27848,7 +27910,7 @@
         <v>42461</v>
       </c>
       <c r="F984" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -27869,7 +27931,7 @@
         <v>42430</v>
       </c>
       <c r="F985" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -27890,7 +27952,7 @@
         <v>42430</v>
       </c>
       <c r="F986" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -27911,7 +27973,7 @@
         <v>42430</v>
       </c>
       <c r="F987" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -27932,7 +27994,7 @@
         <v>42430</v>
       </c>
       <c r="F988" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -27953,7 +28015,7 @@
         <v>42430</v>
       </c>
       <c r="F989" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -27974,7 +28036,7 @@
         <v>42430</v>
       </c>
       <c r="F990" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -27995,7 +28057,7 @@
         <v>42430</v>
       </c>
       <c r="F991" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -28016,7 +28078,7 @@
         <v>42430</v>
       </c>
       <c r="F992" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -28037,7 +28099,7 @@
         <v>42430</v>
       </c>
       <c r="F993" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -28058,7 +28120,7 @@
         <v>42401</v>
       </c>
       <c r="F994" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -28079,7 +28141,7 @@
         <v>42401</v>
       </c>
       <c r="F995" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -28100,7 +28162,7 @@
         <v>42401</v>
       </c>
       <c r="F996" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -28121,7 +28183,7 @@
         <v>42401</v>
       </c>
       <c r="F997" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -28142,7 +28204,7 @@
         <v>42401</v>
       </c>
       <c r="F998" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -28163,7 +28225,7 @@
         <v>42401</v>
       </c>
       <c r="F999" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -28184,7 +28246,7 @@
         <v>42401</v>
       </c>
       <c r="F1000" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -28205,7 +28267,7 @@
         <v>42401</v>
       </c>
       <c r="F1001" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -28226,7 +28288,7 @@
         <v>42401</v>
       </c>
       <c r="F1002" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -28247,7 +28309,7 @@
         <v>42401</v>
       </c>
       <c r="F1003" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -28268,7 +28330,7 @@
         <v>42370</v>
       </c>
       <c r="F1004" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -28289,7 +28351,7 @@
         <v>42370</v>
       </c>
       <c r="F1005" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -28310,7 +28372,7 @@
         <v>42370</v>
       </c>
       <c r="F1006" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -28331,7 +28393,7 @@
         <v>42370</v>
       </c>
       <c r="F1007" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -28352,7 +28414,7 @@
         <v>42370</v>
       </c>
       <c r="F1008" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
@@ -28373,7 +28435,7 @@
         <v>42339</v>
       </c>
       <c r="F1009" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2015</v>
       </c>
     </row>
@@ -28394,7 +28456,7 @@
         <v>42339</v>
       </c>
       <c r="F1010" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2015</v>
       </c>
     </row>
@@ -28415,7 +28477,7 @@
         <v>42339</v>
       </c>
       <c r="F1011" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2015</v>
       </c>
     </row>
@@ -28436,7 +28498,7 @@
         <v>42339</v>
       </c>
       <c r="F1012" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2015</v>
       </c>
     </row>
@@ -28457,7 +28519,7 @@
         <v>42339</v>
       </c>
       <c r="F1013" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2015</v>
       </c>
     </row>
@@ -28478,7 +28540,7 @@
         <v>42339</v>
       </c>
       <c r="F1014" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2015</v>
       </c>
     </row>
@@ -28499,7 +28561,7 @@
         <v>42278</v>
       </c>
       <c r="F1015" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2015</v>
       </c>
     </row>
@@ -28520,7 +28582,7 @@
         <v>42278</v>
       </c>
       <c r="F1016" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2015</v>
       </c>
     </row>
@@ -28541,7 +28603,7 @@
         <v>42278</v>
       </c>
       <c r="F1017" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2015</v>
       </c>
     </row>
@@ -28562,7 +28624,7 @@
         <v>42278</v>
       </c>
       <c r="F1018" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2015</v>
       </c>
     </row>
@@ -28583,7 +28645,7 @@
         <v>42278</v>
       </c>
       <c r="F1019" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2015</v>
       </c>
     </row>
@@ -28604,7 +28666,7 @@
         <v>42248</v>
       </c>
       <c r="F1020" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2015</v>
       </c>
     </row>
@@ -28625,7 +28687,7 @@
         <v>42248</v>
       </c>
       <c r="F1021" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2015</v>
       </c>
     </row>
@@ -28646,7 +28708,7 @@
         <v>42217</v>
       </c>
       <c r="F1022" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2015</v>
       </c>
     </row>
@@ -28667,7 +28729,7 @@
         <v>42217</v>
       </c>
       <c r="F1023" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2015</v>
       </c>
     </row>
@@ -28688,7 +28750,7 @@
         <v>42217</v>
       </c>
       <c r="F1024" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2015</v>
       </c>
     </row>
@@ -28709,7 +28771,7 @@
         <v>42217</v>
       </c>
       <c r="F1025" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2015</v>
       </c>
     </row>
@@ -28730,7 +28792,7 @@
         <v>42217</v>
       </c>
       <c r="F1026" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2015</v>
       </c>
     </row>
@@ -28751,7 +28813,7 @@
         <v>42186</v>
       </c>
       <c r="F1027" s="3">
-        <f t="shared" ref="F1027:F1076" si="18">YEAR(E1027)</f>
+        <f t="shared" ref="F1027:F1076" si="20">YEAR(E1027)</f>
         <v>2015</v>
       </c>
     </row>
@@ -28772,7 +28834,7 @@
         <v>42186</v>
       </c>
       <c r="F1028" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2015</v>
       </c>
     </row>
@@ -28793,7 +28855,7 @@
         <v>42156</v>
       </c>
       <c r="F1029" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2015</v>
       </c>
     </row>
@@ -28814,7 +28876,7 @@
         <v>42156</v>
       </c>
       <c r="F1030" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2015</v>
       </c>
     </row>
@@ -28835,7 +28897,7 @@
         <v>42095</v>
       </c>
       <c r="F1031" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2015</v>
       </c>
     </row>
@@ -28856,7 +28918,7 @@
         <v>42095</v>
       </c>
       <c r="F1032" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2015</v>
       </c>
     </row>
@@ -28877,7 +28939,7 @@
         <v>42064</v>
       </c>
       <c r="F1033" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2015</v>
       </c>
     </row>
@@ -28898,7 +28960,7 @@
         <v>42064</v>
       </c>
       <c r="F1034" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2015</v>
       </c>
     </row>
@@ -28919,7 +28981,7 @@
         <v>42064</v>
       </c>
       <c r="F1035" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2015</v>
       </c>
     </row>
@@ -28940,7 +29002,7 @@
         <v>42036</v>
       </c>
       <c r="F1036" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2015</v>
       </c>
     </row>
@@ -28961,7 +29023,7 @@
         <v>42036</v>
       </c>
       <c r="F1037" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2015</v>
       </c>
     </row>
@@ -28982,7 +29044,7 @@
         <v>42005</v>
       </c>
       <c r="F1038" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2015</v>
       </c>
     </row>
@@ -29003,7 +29065,7 @@
         <v>42005</v>
       </c>
       <c r="F1039" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2015</v>
       </c>
     </row>
@@ -29024,7 +29086,7 @@
         <v>41974</v>
       </c>
       <c r="F1040" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
     </row>
@@ -29045,7 +29107,7 @@
         <v>41974</v>
       </c>
       <c r="F1041" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
     </row>
@@ -29066,7 +29128,7 @@
         <v>41974</v>
       </c>
       <c r="F1042" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
     </row>
@@ -29087,7 +29149,7 @@
         <v>41974</v>
       </c>
       <c r="F1043" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
     </row>
@@ -29108,7 +29170,7 @@
         <v>41974</v>
       </c>
       <c r="F1044" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
     </row>
@@ -29129,7 +29191,7 @@
         <v>41974</v>
       </c>
       <c r="F1045" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
     </row>
@@ -29150,7 +29212,7 @@
         <v>41974</v>
       </c>
       <c r="F1046" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
     </row>
@@ -29171,7 +29233,7 @@
         <v>41974</v>
       </c>
       <c r="F1047" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
     </row>
@@ -29192,7 +29254,7 @@
         <v>41883</v>
       </c>
       <c r="F1048" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
     </row>
@@ -29213,7 +29275,7 @@
         <v>41883</v>
       </c>
       <c r="F1049" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
     </row>
@@ -29234,7 +29296,7 @@
         <v>41883</v>
       </c>
       <c r="F1050" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
     </row>
@@ -29255,7 +29317,7 @@
         <v>41852</v>
       </c>
       <c r="F1051" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
     </row>
@@ -29276,7 +29338,7 @@
         <v>41852</v>
       </c>
       <c r="F1052" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
     </row>
@@ -29297,7 +29359,7 @@
         <v>41852</v>
       </c>
       <c r="F1053" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
     </row>
@@ -29318,7 +29380,7 @@
         <v>41821</v>
       </c>
       <c r="F1054" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
     </row>
@@ -29339,7 +29401,7 @@
         <v>41821</v>
       </c>
       <c r="F1055" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
     </row>
@@ -29360,7 +29422,7 @@
         <v>41821</v>
       </c>
       <c r="F1056" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
     </row>
@@ -29381,7 +29443,7 @@
         <v>41821</v>
       </c>
       <c r="F1057" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
     </row>
@@ -29402,7 +29464,7 @@
         <v>41791</v>
       </c>
       <c r="F1058" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
     </row>
@@ -29423,7 +29485,7 @@
         <v>41791</v>
       </c>
       <c r="F1059" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
     </row>
@@ -29444,7 +29506,7 @@
         <v>41760</v>
       </c>
       <c r="F1060" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
     </row>
@@ -29465,7 +29527,7 @@
         <v>41699</v>
       </c>
       <c r="F1061" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
     </row>
@@ -29486,7 +29548,7 @@
         <v>41699</v>
       </c>
       <c r="F1062" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
     </row>
@@ -29507,7 +29569,7 @@
         <v>41699</v>
       </c>
       <c r="F1063" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
     </row>
@@ -29528,7 +29590,7 @@
         <v>41640</v>
       </c>
       <c r="F1064" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
     </row>
@@ -29549,7 +29611,7 @@
         <v>41640</v>
       </c>
       <c r="F1065" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
     </row>
@@ -29570,7 +29632,7 @@
         <v>41609</v>
       </c>
       <c r="F1066" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2013</v>
       </c>
     </row>
@@ -29591,7 +29653,7 @@
         <v>41609</v>
       </c>
       <c r="F1067" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2013</v>
       </c>
     </row>
@@ -29612,7 +29674,7 @@
         <v>41609</v>
       </c>
       <c r="F1068" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2013</v>
       </c>
     </row>
@@ -29633,7 +29695,7 @@
         <v>41609</v>
       </c>
       <c r="F1069" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2013</v>
       </c>
     </row>
@@ -29654,7 +29716,7 @@
         <v>41456</v>
       </c>
       <c r="F1070" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2013</v>
       </c>
     </row>
@@ -29675,7 +29737,7 @@
         <v>41426</v>
       </c>
       <c r="F1071" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2013</v>
       </c>
     </row>
@@ -29696,7 +29758,7 @@
         <v>41244</v>
       </c>
       <c r="F1072" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2012</v>
       </c>
     </row>
@@ -29717,7 +29779,7 @@
         <v>41244</v>
       </c>
       <c r="F1073" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2012</v>
       </c>
     </row>
@@ -29738,7 +29800,7 @@
         <v>41244</v>
       </c>
       <c r="F1074" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2012</v>
       </c>
     </row>
@@ -29759,7 +29821,7 @@
         <v>41122</v>
       </c>
       <c r="F1075" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2012</v>
       </c>
     </row>
@@ -29780,12 +29842,13 @@
         <v>41091</v>
       </c>
       <c r="F1076" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2012</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/open_phil_data_modified.xlsx
+++ b/open_phil_data_modified.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmaul\Documents\EA Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmaul\Documents\GitHub\ea_stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB76D1DA-E13C-475E-BDFF-DD46D1FA3830}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D195FC75-9E37-4194-A94C-C4B996BDAC0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3242" uniqueCount="1642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3243" uniqueCount="1643">
   <si>
     <t>Grant</t>
   </si>
@@ -4957,6 +4957,9 @@
   </si>
   <si>
     <t>Eafunds</t>
+  </si>
+  <si>
+    <t>OP</t>
   </si>
 </sst>
 </file>
@@ -4967,7 +4970,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,,&quot;M&quot;"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,,&quot;M&quot;"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -5454,7 +5457,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5464,7 +5467,8 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -7023,7 +7027,7 @@
   <dimension ref="A1:U1076"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7034,6 +7038,7 @@
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -7596,7 +7601,7 @@
         <v>0.21978807767671515</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -7617,7 +7622,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -7638,7 +7643,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -7659,8 +7664,11 @@
         <v>2020</v>
       </c>
       <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="T19" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -7681,8 +7689,16 @@
         <v>2020</v>
       </c>
       <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="T20" s="8">
+        <f>SUM(I2:I5)</f>
+        <v>140821060</v>
+      </c>
+      <c r="U20" s="5">
+        <f>T20/T21</f>
+        <v>0.63621810516536537</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -7702,8 +7718,12 @@
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="T21">
+        <f>SUMIF(F:F,"="&amp;2020,D:D)</f>
+        <v>221340856</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -7724,7 +7744,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -7745,7 +7765,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -7766,7 +7786,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -7787,7 +7807,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -7808,7 +7828,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -7829,7 +7849,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -7850,7 +7870,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -7871,7 +7891,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -7892,7 +7912,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -7913,7 +7933,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>73</v>
       </c>

--- a/open_phil_data_modified.xlsx
+++ b/open_phil_data_modified.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmaul\Documents\GitHub\ea_stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D195FC75-9E37-4194-A94C-C4B996BDAC0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B257A845-A6E8-4986-90CA-2006C041DE3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-18315" yWindow="1860" windowWidth="18645" windowHeight="8895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="open_phil_data_modified" sheetId="1" r:id="rId1"/>
@@ -7027,7 +7027,7 @@
   <dimension ref="A1:U1076"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7037,7 +7037,7 @@
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7311,6 +7311,18 @@
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
+      <c r="N6">
+        <v>29166792</v>
+      </c>
+      <c r="O6">
+        <v>98418636</v>
+      </c>
+      <c r="R6">
+        <v>179369259</v>
+      </c>
+      <c r="S6">
+        <v>140821060</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -7480,6 +7492,10 @@
       <c r="F12" s="3">
         <f t="shared" si="0"/>
         <v>2020</v>
+      </c>
+      <c r="I12" s="8">
+        <f>SUM(I2:I5)</f>
+        <v>140821060</v>
       </c>
       <c r="T12" t="s">
         <v>1641</v>
